--- a/IphoneCrawler/IphoneCrawler/output.xlsx
+++ b/IphoneCrawler/IphoneCrawler/output.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
+    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -56,11 +59,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -412,10 +416,8 @@
           <t>6s plus</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>19/05/2020</t>
-        </is>
+      <c r="C2" s="2" t="n">
+        <v>43970.3625</v>
       </c>
       <c r="D2" t="n">
         <v>100</v>
@@ -446,10 +448,8 @@
           <t>xs original lcd</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>18/05/2020</t>
-        </is>
+      <c r="C3" s="2" t="n">
+        <v>43969.83472222222</v>
       </c>
       <c r="D3" t="n">
         <v>140</v>
@@ -480,10 +480,8 @@
           <t>6s 64 gb rose gold</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>18/05/2020</t>
-        </is>
+      <c r="C4" s="2" t="n">
+        <v>43969.85138888889</v>
       </c>
       <c r="D4" t="n">
         <v>120</v>
@@ -514,10 +512,8 @@
           <t>8 plus 256gb</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>18/05/2020</t>
-        </is>
+      <c r="C5" s="2" t="n">
+        <v>43969.85208333333</v>
       </c>
       <c r="D5" t="n">
         <v>600</v>
@@ -548,10 +544,8 @@
           <t>xs silver 64gb</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>18/05/2020</t>
-        </is>
+      <c r="C6" s="2" t="n">
+        <v>43969.86458333334</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
@@ -582,10 +576,8 @@
           <t>7</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>18/05/2020</t>
-        </is>
+      <c r="C7" s="2" t="n">
+        <v>43969.87083333333</v>
       </c>
       <c r="D7" t="n">
         <v>150</v>
@@ -616,10 +608,8 @@
           <t>6s</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>18/05/2020</t>
-        </is>
+      <c r="C8" s="2" t="n">
+        <v>43969.87777777778</v>
       </c>
       <c r="D8" t="n">
         <v>1</v>
@@ -650,10 +640,8 @@
           <t>6s plus 64 gb</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>18/05/2020</t>
-        </is>
+      <c r="C9" s="2" t="n">
+        <v>43969.8875</v>
       </c>
       <c r="D9" t="n">
         <v>150</v>
@@ -684,10 +672,8 @@
           <t>8 64gb</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>18/05/2020</t>
-        </is>
+      <c r="C10" s="2" t="n">
+        <v>43969.89027777778</v>
       </c>
       <c r="D10" t="n">
         <v>300</v>
@@ -718,10 +704,8 @@
           <t>x 64gb space gray</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>18/05/2020</t>
-        </is>
+      <c r="C11" s="2" t="n">
+        <v>43969.89305555556</v>
       </c>
       <c r="D11" t="n">
         <v>450</v>
@@ -752,10 +736,8 @@
           <t>xs max 512 gb space gray 6</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>18/05/2020</t>
-        </is>
+      <c r="C12" s="2" t="n">
+        <v>43969.91875</v>
       </c>
       <c r="D12" t="n">
         <v>620</v>
@@ -786,10 +768,8 @@
           <t>11 64 gb</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>18/05/2020</t>
-        </is>
+      <c r="C13" s="2" t="n">
+        <v>43969.93819444445</v>
       </c>
       <c r="D13" t="n">
         <v>600</v>
@@ -820,10 +800,8 @@
           <t>11 128 gb</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>18/05/2020</t>
-        </is>
+      <c r="C14" s="2" t="n">
+        <v>43969.94027777778</v>
       </c>
       <c r="D14" t="n">
         <v>780</v>
@@ -854,10 +832,8 @@
           <t>8 plus 64 gb product red</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>18/05/2020</t>
-        </is>
+      <c r="C15" s="2" t="n">
+        <v>43969.96041666667</v>
       </c>
       <c r="D15" t="n">
         <v>400</v>
@@ -888,10 +864,8 @@
           <t>7 plus 128gb jet black</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>19/05/2020</t>
-        </is>
+      <c r="C16" s="2" t="n">
+        <v>43970.00833333333</v>
       </c>
       <c r="D16" t="n">
         <v>330</v>
@@ -922,10 +896,8 @@
           <t>7 rose gold</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>18/05/2020</t>
-        </is>
+      <c r="C17" s="2" t="n">
+        <v>43969.6</v>
       </c>
       <c r="D17" t="n">
         <v>220</v>
@@ -956,10 +928,8 @@
           <t>6s 64 gb space grey</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>18/05/2020</t>
-        </is>
+      <c r="C18" s="2" t="n">
+        <v>43969.60347222222</v>
       </c>
       <c r="D18" t="n">
         <v>180</v>
@@ -990,10 +960,8 @@
           <t>11 pro max mid green</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>18/05/2020</t>
-        </is>
+      <c r="C19" s="2" t="n">
+        <v>43969.60763888889</v>
       </c>
       <c r="D19" t="n">
         <v>950</v>
@@ -1024,10 +992,8 @@
           <t>6s rose gold</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>18/05/2020</t>
-        </is>
+      <c r="C20" s="2" t="n">
+        <v>43969.61180555556</v>
       </c>
       <c r="D20" t="n">
         <v>140</v>
@@ -1058,10 +1024,8 @@
           <t>xs max space grey 97</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>18/05/2020</t>
-        </is>
+      <c r="C21" s="2" t="n">
+        <v>43969.61666666667</v>
       </c>
       <c r="D21" t="n">
         <v>650</v>
@@ -1092,10 +1056,8 @@
           <t>7 32 gb</t>
         </is>
       </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>18/05/2020</t>
-        </is>
+      <c r="C22" s="2" t="n">
+        <v>43969.62083333333</v>
       </c>
       <c r="D22" t="n">
         <v>220</v>
@@ -1126,10 +1088,8 @@
           <t>6s rose gold 64gb</t>
         </is>
       </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>18/05/2020</t>
-        </is>
+      <c r="C23" s="2" t="n">
+        <v>43969.64791666667</v>
       </c>
       <c r="D23" t="n">
         <v>150</v>
@@ -1160,10 +1120,8 @@
           <t>6s plus rose gold</t>
         </is>
       </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>18/05/2020</t>
-        </is>
+      <c r="C24" s="2" t="n">
+        <v>43969.65</v>
       </c>
       <c r="D24" t="n">
         <v>230</v>
@@ -1194,10 +1152,8 @@
           <t>7 32gb 4g</t>
         </is>
       </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>18/05/2020</t>
-        </is>
+      <c r="C25" s="2" t="n">
+        <v>43969.65</v>
       </c>
       <c r="D25" t="n">
         <v>180</v>
@@ -1228,10 +1184,8 @@
           <t>7 32gb</t>
         </is>
       </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>18/05/2020</t>
-        </is>
+      <c r="C26" s="2" t="n">
+        <v>43969.65208333333</v>
       </c>
       <c r="D26" t="n">
         <v>200</v>
@@ -1262,10 +1216,8 @@
           <t>x 256gb</t>
         </is>
       </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>18/05/2020</t>
-        </is>
+      <c r="C27" s="2" t="n">
+        <v>43969.67708333334</v>
       </c>
       <c r="D27" t="n">
         <v>700</v>
@@ -1296,10 +1248,8 @@
           <t>7 plus 128gb jet black</t>
         </is>
       </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>18/05/2020</t>
-        </is>
+      <c r="C28" s="2" t="n">
+        <v>43969.69166666667</v>
       </c>
       <c r="D28" t="n">
         <v>260</v>
@@ -1330,10 +1280,8 @@
           <t>x 64gb special grey</t>
         </is>
       </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>18/05/2020</t>
-        </is>
+      <c r="C29" s="2" t="n">
+        <v>43969.72013888889</v>
       </c>
       <c r="D29" t="n">
         <v>450</v>
@@ -1364,10 +1312,8 @@
           <t>x 64gb space grey 90</t>
         </is>
       </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>18/05/2020</t>
-        </is>
+      <c r="C30" s="2" t="n">
+        <v>43969.72291666667</v>
       </c>
       <c r="D30" t="n">
         <v>460</v>
@@ -1398,10 +1344,8 @@
           <t>11 pro max 64gb midnight green</t>
         </is>
       </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>18/05/2020</t>
-        </is>
+      <c r="C31" s="2" t="n">
+        <v>43969.72847222222</v>
       </c>
       <c r="D31" t="n">
         <v>1050</v>
@@ -1432,10 +1376,8 @@
           <t>11 pro 64gb space gray</t>
         </is>
       </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>17/05/2020</t>
-        </is>
+      <c r="C32" s="2" t="n">
+        <v>43968.97708333333</v>
       </c>
       <c r="D32" t="n">
         <v>840</v>
@@ -1466,10 +1408,8 @@
           <t>7 128 gb</t>
         </is>
       </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>18/05/2020</t>
-        </is>
+      <c r="C33" s="2" t="n">
+        <v>43969.00694444445</v>
       </c>
       <c r="D33" t="n">
         <v>240</v>
@@ -1500,10 +1440,8 @@
           <t>11 pro max 64 gb</t>
         </is>
       </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>18/05/2020</t>
-        </is>
+      <c r="C34" s="2" t="n">
+        <v>43969.03472222222</v>
       </c>
       <c r="D34" t="n">
         <v>800</v>
@@ -1534,10 +1472,8 @@
           <t>6 16gb</t>
         </is>
       </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>18/05/2020</t>
-        </is>
+      <c r="C35" s="2" t="n">
+        <v>43969.07291666666</v>
       </c>
       <c r="D35" t="n">
         <v>95</v>
@@ -1568,10 +1504,8 @@
           <t>7 32gb matte black</t>
         </is>
       </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>18/05/2020</t>
-        </is>
+      <c r="C36" s="2" t="n">
+        <v>43969.08611111111</v>
       </c>
       <c r="D36" t="n">
         <v>70</v>
@@ -1602,10 +1536,8 @@
           <t>x 64gb klidomeno se sprint diktio</t>
         </is>
       </c>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>18/05/2020</t>
-        </is>
+      <c r="C37" s="2" t="n">
+        <v>43969.12291666667</v>
       </c>
       <c r="D37" t="n">
         <v>270</v>
@@ -1636,10 +1568,8 @@
           <t>7 32 gb rose</t>
         </is>
       </c>
-      <c r="C38" t="inlineStr">
-        <is>
-          <t>18/05/2020</t>
-        </is>
+      <c r="C38" s="2" t="n">
+        <v>43969.31944444445</v>
       </c>
       <c r="D38" t="n">
         <v>130</v>
@@ -1670,10 +1600,8 @@
           <t>11 pro max case</t>
         </is>
       </c>
-      <c r="C39" t="inlineStr">
-        <is>
-          <t>18/05/2020</t>
-        </is>
+      <c r="C39" s="2" t="n">
+        <v>43969.41458333333</v>
       </c>
       <c r="D39" t="n">
         <v>40</v>
@@ -1704,10 +1632,8 @@
           <t>11 pro max 512gb midnight green</t>
         </is>
       </c>
-      <c r="C40" t="inlineStr">
-        <is>
-          <t>18/05/2020</t>
-        </is>
+      <c r="C40" s="2" t="n">
+        <v>43969.42083333333</v>
       </c>
       <c r="D40" t="n">
         <v>1250</v>
@@ -1738,10 +1664,8 @@
           <t>xs 64gb space grey</t>
         </is>
       </c>
-      <c r="C41" t="inlineStr">
-        <is>
-          <t>18/05/2020</t>
-        </is>
+      <c r="C41" s="2" t="n">
+        <v>43969.46527777778</v>
       </c>
       <c r="D41" t="n">
         <v>500</v>
@@ -1772,10 +1696,8 @@
           <t>8 64gb</t>
         </is>
       </c>
-      <c r="C42" t="inlineStr">
-        <is>
-          <t>18/05/2020</t>
-        </is>
+      <c r="C42" s="2" t="n">
+        <v>43969.48263888889</v>
       </c>
       <c r="D42" t="n">
         <v>250</v>
@@ -1806,10 +1728,8 @@
           <t>xs max new</t>
         </is>
       </c>
-      <c r="C43" t="inlineStr">
-        <is>
-          <t>17/05/2020</t>
-        </is>
+      <c r="C43" s="2" t="n">
+        <v>43968.69722222222</v>
       </c>
       <c r="D43" t="n">
         <v>640</v>
@@ -1840,10 +1760,8 @@
           <t>11 black 64gb</t>
         </is>
       </c>
-      <c r="C44" t="inlineStr">
-        <is>
-          <t>17/05/2020</t>
-        </is>
+      <c r="C44" s="2" t="n">
+        <v>43968.70416666667</v>
       </c>
       <c r="D44" t="n">
         <v>650</v>
@@ -1874,10 +1792,8 @@
           <t>7 jet black 256gb</t>
         </is>
       </c>
-      <c r="C45" t="inlineStr">
-        <is>
-          <t>17/05/2020</t>
-        </is>
+      <c r="C45" s="2" t="n">
+        <v>43968.72569444445</v>
       </c>
       <c r="D45" t="n">
         <v>200</v>
@@ -1908,10 +1824,8 @@
           <t>7 gold 32gb</t>
         </is>
       </c>
-      <c r="C46" t="inlineStr">
-        <is>
-          <t>17/05/2020</t>
-        </is>
+      <c r="C46" s="2" t="n">
+        <v>43968.74652777778</v>
       </c>
       <c r="D46" t="n">
         <v>200</v>
@@ -1942,10 +1856,8 @@
           <t>11 pro max</t>
         </is>
       </c>
-      <c r="C47" t="inlineStr">
-        <is>
-          <t>17/05/2020</t>
-        </is>
+      <c r="C47" s="2" t="n">
+        <v>43968.76736111111</v>
       </c>
       <c r="D47" t="n">
         <v>1400</v>
@@ -1976,10 +1888,8 @@
           <t>7 plus 32 gb</t>
         </is>
       </c>
-      <c r="C48" t="inlineStr">
-        <is>
-          <t>17/05/2020</t>
-        </is>
+      <c r="C48" s="2" t="n">
+        <v>43968.84166666667</v>
       </c>
       <c r="D48" t="n">
         <v>250</v>
@@ -2010,10 +1920,8 @@
           <t>6s 6 plus</t>
         </is>
       </c>
-      <c r="C49" t="inlineStr">
-        <is>
-          <t>17/05/2020</t>
-        </is>
+      <c r="C49" s="2" t="n">
+        <v>43968.85208333333</v>
       </c>
       <c r="D49" t="n">
         <v>0</v>
@@ -2044,10 +1952,8 @@
           <t>x 64 256gb</t>
         </is>
       </c>
-      <c r="C50" t="inlineStr">
-        <is>
-          <t>17/05/2020</t>
-        </is>
+      <c r="C50" s="2" t="n">
+        <v>43968.86527777778</v>
       </c>
       <c r="D50" t="n">
         <v>440</v>
@@ -2078,10 +1984,8 @@
           <t>7 128gb red special edition</t>
         </is>
       </c>
-      <c r="C51" t="inlineStr">
-        <is>
-          <t>17/05/2020</t>
-        </is>
+      <c r="C51" s="2" t="n">
+        <v>43968.87222222222</v>
       </c>
       <c r="D51" t="n">
         <v>300</v>
@@ -2112,10 +2016,8 @@
           <t>6 32gb</t>
         </is>
       </c>
-      <c r="C52" t="inlineStr">
-        <is>
-          <t>17/05/2020</t>
-        </is>
+      <c r="C52" s="2" t="n">
+        <v>43968.89513888889</v>
       </c>
       <c r="D52" t="n">
         <v>120</v>
@@ -2146,10 +2048,8 @@
           <t>11 pro max 64 gb</t>
         </is>
       </c>
-      <c r="C53" t="inlineStr">
-        <is>
-          <t>17/05/2020</t>
-        </is>
+      <c r="C53" s="2" t="n">
+        <v>43968.90902777778</v>
       </c>
       <c r="D53" t="n">
         <v>1000</v>
@@ -2180,10 +2080,8 @@
           <t>7 black 128gb</t>
         </is>
       </c>
-      <c r="C54" t="inlineStr">
-        <is>
-          <t>17/05/2020</t>
-        </is>
+      <c r="C54" s="2" t="n">
+        <v>43968.39166666667</v>
       </c>
       <c r="D54" t="n">
         <v>250</v>
@@ -2214,10 +2112,8 @@
           <t>6s 16gb 100</t>
         </is>
       </c>
-      <c r="C55" t="inlineStr">
-        <is>
-          <t>17/05/2020</t>
-        </is>
+      <c r="C55" s="2" t="n">
+        <v>43968.40555555555</v>
       </c>
       <c r="D55" t="n">
         <v>100</v>
@@ -2248,10 +2144,8 @@
           <t>x 64gb space grey 92</t>
         </is>
       </c>
-      <c r="C56" t="inlineStr">
-        <is>
-          <t>17/05/2020</t>
-        </is>
+      <c r="C56" s="2" t="n">
+        <v>43968.43125</v>
       </c>
       <c r="D56" t="n">
         <v>450</v>
@@ -2282,10 +2176,8 @@
           <t>8 64gb</t>
         </is>
       </c>
-      <c r="C57" t="inlineStr">
-        <is>
-          <t>17/05/2020</t>
-        </is>
+      <c r="C57" s="2" t="n">
+        <v>43968.46041666667</v>
       </c>
       <c r="D57" t="n">
         <v>100</v>
@@ -2316,10 +2208,8 @@
           <t>11 pro max</t>
         </is>
       </c>
-      <c r="C58" t="inlineStr">
-        <is>
-          <t>17/05/2020</t>
-        </is>
+      <c r="C58" s="2" t="n">
+        <v>43968.47916666666</v>
       </c>
       <c r="D58" t="n">
         <v>550</v>
@@ -2350,10 +2240,8 @@
           <t>7 black</t>
         </is>
       </c>
-      <c r="C59" t="inlineStr">
-        <is>
-          <t>17/05/2020</t>
-        </is>
+      <c r="C59" s="2" t="n">
+        <v>43968.48819444444</v>
       </c>
       <c r="D59" t="n">
         <v>199</v>
@@ -2384,10 +2272,8 @@
           <t>6s 32gb space grey</t>
         </is>
       </c>
-      <c r="C60" t="inlineStr">
-        <is>
-          <t>17/05/2020</t>
-        </is>
+      <c r="C60" s="2" t="n">
+        <v>43968.49583333333</v>
       </c>
       <c r="D60" t="n">
         <v>140</v>
@@ -2418,10 +2304,8 @@
           <t>6s plus</t>
         </is>
       </c>
-      <c r="C61" t="inlineStr">
-        <is>
-          <t>17/05/2020</t>
-        </is>
+      <c r="C61" s="2" t="n">
+        <v>43968.49722222222</v>
       </c>
       <c r="D61" t="n">
         <v>170</v>
@@ -2452,10 +2336,8 @@
           <t>7 plus 128 gb</t>
         </is>
       </c>
-      <c r="C62" t="inlineStr">
-        <is>
-          <t>17/05/2020</t>
-        </is>
+      <c r="C62" s="2" t="n">
+        <v>43968.50069444445</v>
       </c>
       <c r="D62" t="n">
         <v>300</v>
@@ -2486,10 +2368,8 @@
           <t>xs max 256gb</t>
         </is>
       </c>
-      <c r="C63" t="inlineStr">
-        <is>
-          <t>17/05/2020</t>
-        </is>
+      <c r="C63" s="2" t="n">
+        <v>43968.50347222222</v>
       </c>
       <c r="D63" t="n">
         <v>690</v>
@@ -2520,10 +2400,8 @@
           <t>xr white 64gb</t>
         </is>
       </c>
-      <c r="C64" t="inlineStr">
-        <is>
-          <t>17/05/2020</t>
-        </is>
+      <c r="C64" s="2" t="n">
+        <v>43968.52986111111</v>
       </c>
       <c r="D64" t="n">
         <v>450</v>
@@ -2554,10 +2432,8 @@
           <t>8 plus 64 gb</t>
         </is>
       </c>
-      <c r="C65" t="inlineStr">
-        <is>
-          <t>17/05/2020</t>
-        </is>
+      <c r="C65" s="2" t="n">
+        <v>43968.53125</v>
       </c>
       <c r="D65" t="n">
         <v>400</v>
@@ -2588,10 +2464,8 @@
           <t>xr 128gb</t>
         </is>
       </c>
-      <c r="C66" t="inlineStr">
-        <is>
-          <t>17/05/2020</t>
-        </is>
+      <c r="C66" s="2" t="n">
+        <v>43968.5375</v>
       </c>
       <c r="D66" t="n">
         <v>480</v>
@@ -2622,10 +2496,8 @@
           <t>8</t>
         </is>
       </c>
-      <c r="C67" t="inlineStr">
-        <is>
-          <t>16/05/2020</t>
-        </is>
+      <c r="C67" s="2" t="n">
+        <v>43967.66597222222</v>
       </c>
       <c r="D67" t="n">
         <v>460</v>
@@ -2656,10 +2528,8 @@
           <t>xs max 256gb</t>
         </is>
       </c>
-      <c r="C68" t="inlineStr">
-        <is>
-          <t>16/05/2020</t>
-        </is>
+      <c r="C68" s="2" t="n">
+        <v>43967.66944444444</v>
       </c>
       <c r="D68" t="n">
         <v>615</v>
@@ -2690,10 +2560,8 @@
           <t>7 128gb matte black</t>
         </is>
       </c>
-      <c r="C69" t="inlineStr">
-        <is>
-          <t>16/05/2020</t>
-        </is>
+      <c r="C69" s="2" t="n">
+        <v>43967.71597222222</v>
       </c>
       <c r="D69" t="n">
         <v>230</v>
@@ -2724,10 +2592,8 @@
           <t>8 64 gb</t>
         </is>
       </c>
-      <c r="C70" t="inlineStr">
-        <is>
-          <t>16/05/2020</t>
-        </is>
+      <c r="C70" s="2" t="n">
+        <v>43967.74513888889</v>
       </c>
       <c r="D70" t="n">
         <v>230</v>
@@ -2758,10 +2624,8 @@
           <t>11 pro max 64 green</t>
         </is>
       </c>
-      <c r="C71" t="inlineStr">
-        <is>
-          <t>16/05/2020</t>
-        </is>
+      <c r="C71" s="2" t="n">
+        <v>43967.74583333333</v>
       </c>
       <c r="D71" t="n">
         <v>1100</v>
@@ -2792,10 +2656,8 @@
           <t>8 cube mix plus s7 edge</t>
         </is>
       </c>
-      <c r="C72" t="inlineStr">
-        <is>
-          <t>16/05/2020</t>
-        </is>
+      <c r="C72" s="2" t="n">
+        <v>43967.76111111111</v>
       </c>
       <c r="D72" t="n">
         <v>1</v>
@@ -2826,10 +2688,8 @@
           <t>11 pro max 64 airpods 2 gen 4</t>
         </is>
       </c>
-      <c r="C73" t="inlineStr">
-        <is>
-          <t>16/05/2020</t>
-        </is>
+      <c r="C73" s="2" t="n">
+        <v>43967.80208333334</v>
       </c>
       <c r="D73" t="n">
         <v>1000</v>
@@ -2860,10 +2720,8 @@
           <t>11 pro max 64gb</t>
         </is>
       </c>
-      <c r="C74" t="inlineStr">
-        <is>
-          <t>16/05/2020</t>
-        </is>
+      <c r="C74" s="2" t="n">
+        <v>43967.81180555555</v>
       </c>
       <c r="D74" t="n">
         <v>1080</v>
@@ -2894,10 +2752,8 @@
           <t>6s gold 16gb</t>
         </is>
       </c>
-      <c r="C75" t="inlineStr">
-        <is>
-          <t>16/05/2020</t>
-        </is>
+      <c r="C75" s="2" t="n">
+        <v>43967.82847222222</v>
       </c>
       <c r="D75" t="n">
         <v>70</v>
@@ -2928,10 +2784,8 @@
           <t>11 pro 64gb space grey</t>
         </is>
       </c>
-      <c r="C76" t="inlineStr">
-        <is>
-          <t>16/05/2020</t>
-        </is>
+      <c r="C76" s="2" t="n">
+        <v>43967.43541666667</v>
       </c>
       <c r="D76" t="n">
         <v>949</v>
@@ -2962,10 +2816,8 @@
           <t>8 64gb black</t>
         </is>
       </c>
-      <c r="C77" t="inlineStr">
-        <is>
-          <t>16/05/2020</t>
-        </is>
+      <c r="C77" s="2" t="n">
+        <v>43967.46180555555</v>
       </c>
       <c r="D77" t="n">
         <v>300</v>
@@ -2996,10 +2848,8 @@
           <t>x 256gb space grey</t>
         </is>
       </c>
-      <c r="C78" t="inlineStr">
-        <is>
-          <t>16/05/2020</t>
-        </is>
+      <c r="C78" s="2" t="n">
+        <v>43967.46388888889</v>
       </c>
       <c r="D78" t="n">
         <v>420</v>
@@ -3030,10 +2880,8 @@
           <t>7 plus</t>
         </is>
       </c>
-      <c r="C79" t="inlineStr">
-        <is>
-          <t>16/05/2020</t>
-        </is>
+      <c r="C79" s="2" t="n">
+        <v>43967.47430555556</v>
       </c>
       <c r="D79" t="n">
         <v>300</v>
@@ -3064,10 +2912,8 @@
           <t>6s plus 16gb</t>
         </is>
       </c>
-      <c r="C80" t="inlineStr">
-        <is>
-          <t>16/05/2020</t>
-        </is>
+      <c r="C80" s="2" t="n">
+        <v>43967.49861111111</v>
       </c>
       <c r="D80" t="n">
         <v>150</v>
@@ -3098,10 +2944,8 @@
           <t>xiaomi mi 9 xs xs max 11</t>
         </is>
       </c>
-      <c r="C81" t="inlineStr">
-        <is>
-          <t>16/05/2020</t>
-        </is>
+      <c r="C81" s="2" t="n">
+        <v>43967.50625</v>
       </c>
       <c r="D81" t="n">
         <v>300</v>
@@ -3132,10 +2976,8 @@
           <t>6s 64 black</t>
         </is>
       </c>
-      <c r="C82" t="inlineStr">
-        <is>
-          <t>16/05/2020</t>
-        </is>
+      <c r="C82" s="2" t="n">
+        <v>43967.52569444444</v>
       </c>
       <c r="D82" t="n">
         <v>60</v>
@@ -3166,10 +3008,8 @@
           <t>6s 16gb space gray</t>
         </is>
       </c>
-      <c r="C83" t="inlineStr">
-        <is>
-          <t>16/05/2020</t>
-        </is>
+      <c r="C83" s="2" t="n">
+        <v>43967.53263888889</v>
       </c>
       <c r="D83" t="n">
         <v>150</v>
@@ -3200,10 +3040,8 @@
           <t>8 space grey</t>
         </is>
       </c>
-      <c r="C84" t="inlineStr">
-        <is>
-          <t>15/05/2020</t>
-        </is>
+      <c r="C84" s="2" t="n">
+        <v>43966.82361111111</v>
       </c>
       <c r="D84" t="n">
         <v>360</v>
@@ -3234,10 +3072,8 @@
           <t>xs mas gold 64gb</t>
         </is>
       </c>
-      <c r="C85" t="inlineStr">
-        <is>
-          <t>15/05/2020</t>
-        </is>
+      <c r="C85" s="2" t="n">
+        <v>43966.85277777778</v>
       </c>
       <c r="D85" t="n">
         <v>550</v>
@@ -3268,10 +3104,8 @@
           <t>6s plus 32 gb</t>
         </is>
       </c>
-      <c r="C86" t="inlineStr">
-        <is>
-          <t>15/05/2020</t>
-        </is>
+      <c r="C86" s="2" t="n">
+        <v>43966.86666666667</v>
       </c>
       <c r="D86" t="n">
         <v>120</v>
@@ -3302,10 +3136,8 @@
           <t>7 plus 32gb black matte</t>
         </is>
       </c>
-      <c r="C87" t="inlineStr">
-        <is>
-          <t>15/05/2020</t>
-        </is>
+      <c r="C87" s="2" t="n">
+        <v>43966.89375</v>
       </c>
       <c r="D87" t="n">
         <v>340</v>
@@ -3336,10 +3168,8 @@
           <t>xs max</t>
         </is>
       </c>
-      <c r="C88" t="inlineStr">
-        <is>
-          <t>15/05/2020</t>
-        </is>
+      <c r="C88" s="2" t="n">
+        <v>43966.90972222222</v>
       </c>
       <c r="D88" t="n">
         <v>670</v>
@@ -3370,10 +3200,8 @@
           <t>6s</t>
         </is>
       </c>
-      <c r="C89" t="inlineStr">
-        <is>
-          <t>15/05/2020</t>
-        </is>
+      <c r="C89" s="2" t="n">
+        <v>43966.91527777778</v>
       </c>
       <c r="D89" t="n">
         <v>140</v>
@@ -3404,10 +3232,8 @@
           <t>11 pro max 512 space grey</t>
         </is>
       </c>
-      <c r="C90" t="inlineStr">
-        <is>
-          <t>15/05/2020</t>
-        </is>
+      <c r="C90" s="2" t="n">
+        <v>43966.95069444444</v>
       </c>
       <c r="D90" t="n">
         <v>1100</v>
@@ -3438,10 +3264,8 @@
           <t>7 plus 32gb silver</t>
         </is>
       </c>
-      <c r="C91" t="inlineStr">
-        <is>
-          <t>15/05/2020</t>
-        </is>
+      <c r="C91" s="2" t="n">
+        <v>43966.96597222222</v>
       </c>
       <c r="D91" t="n">
         <v>280</v>
@@ -3472,10 +3296,8 @@
           <t>7 plus 32gb black</t>
         </is>
       </c>
-      <c r="C92" t="inlineStr">
-        <is>
-          <t>16/05/2020</t>
-        </is>
+      <c r="C92" s="2" t="n">
+        <v>43967.00902777778</v>
       </c>
       <c r="D92" t="n">
         <v>230</v>
@@ -3506,10 +3328,8 @@
           <t>xs 64gb</t>
         </is>
       </c>
-      <c r="C93" t="inlineStr">
-        <is>
-          <t>15/05/2020</t>
-        </is>
+      <c r="C93" s="2" t="n">
+        <v>43966.50416666667</v>
       </c>
       <c r="D93" t="n">
         <v>530</v>
@@ -3540,10 +3360,8 @@
           <t>xs space grey 64gb</t>
         </is>
       </c>
-      <c r="C94" t="inlineStr">
-        <is>
-          <t>15/05/2020</t>
-        </is>
+      <c r="C94" s="2" t="n">
+        <v>43966.50694444445</v>
       </c>
       <c r="D94" t="n">
         <v>450</v>
@@ -3574,10 +3392,8 @@
           <t>6s</t>
         </is>
       </c>
-      <c r="C95" t="inlineStr">
-        <is>
-          <t>15/05/2020</t>
-        </is>
+      <c r="C95" s="2" t="n">
+        <v>43966.58472222222</v>
       </c>
       <c r="D95" t="n">
         <v>140</v>
@@ -3608,10 +3424,8 @@
           <t>8 x xs</t>
         </is>
       </c>
-      <c r="C96" t="inlineStr">
-        <is>
-          <t>15/05/2020</t>
-        </is>
+      <c r="C96" s="2" t="n">
+        <v>43966.58888888889</v>
       </c>
       <c r="D96" t="n">
         <v>20</v>
@@ -3642,10 +3456,8 @@
           <t>6s 64gb gold</t>
         </is>
       </c>
-      <c r="C97" t="inlineStr">
-        <is>
-          <t>15/05/2020</t>
-        </is>
+      <c r="C97" s="2" t="n">
+        <v>43966.63263888889</v>
       </c>
       <c r="D97" t="n">
         <v>100</v>
@@ -3676,10 +3488,8 @@
           <t>xs max 64 gb</t>
         </is>
       </c>
-      <c r="C98" t="inlineStr">
-        <is>
-          <t>15/05/2020</t>
-        </is>
+      <c r="C98" s="2" t="n">
+        <v>43966.65694444445</v>
       </c>
       <c r="D98" t="n">
         <v>520</v>
@@ -3710,10 +3520,8 @@
           <t>6s 32gb rose gold</t>
         </is>
       </c>
-      <c r="C99" t="inlineStr">
-        <is>
-          <t>15/05/2020</t>
-        </is>
+      <c r="C99" s="2" t="n">
+        <v>43966.66041666667</v>
       </c>
       <c r="D99" t="n">
         <v>200</v>
@@ -3744,10 +3552,8 @@
           <t>xr tmobile locked</t>
         </is>
       </c>
-      <c r="C100" t="inlineStr">
-        <is>
-          <t>15/05/2020</t>
-        </is>
+      <c r="C100" s="2" t="n">
+        <v>43966.71180555555</v>
       </c>
       <c r="D100" t="n">
         <v>280</v>
@@ -3778,10 +3584,8 @@
           <t>xs max 64gb</t>
         </is>
       </c>
-      <c r="C101" t="inlineStr">
-        <is>
-          <t>15/05/2020</t>
-        </is>
+      <c r="C101" s="2" t="n">
+        <v>43966.77152777778</v>
       </c>
       <c r="D101" t="n">
         <v>565</v>
@@ -3812,10 +3616,8 @@
           <t>6s</t>
         </is>
       </c>
-      <c r="C102" t="inlineStr">
-        <is>
-          <t>14/05/2020</t>
-        </is>
+      <c r="C102" s="2" t="n">
+        <v>43965.84861111111</v>
       </c>
       <c r="D102" t="n">
         <v>40</v>
@@ -3846,10 +3648,8 @@
           <t>7 32gb</t>
         </is>
       </c>
-      <c r="C103" t="inlineStr">
-        <is>
-          <t>14/05/2020</t>
-        </is>
+      <c r="C103" s="2" t="n">
+        <v>43965.8625</v>
       </c>
       <c r="D103" t="n">
         <v>220</v>
@@ -3880,10 +3680,8 @@
           <t>7 128 gb</t>
         </is>
       </c>
-      <c r="C104" t="inlineStr">
-        <is>
-          <t>14/05/2020</t>
-        </is>
+      <c r="C104" s="2" t="n">
+        <v>43965.88819444444</v>
       </c>
       <c r="D104" t="n">
         <v>220</v>
@@ -3914,10 +3712,8 @@
           <t>8 plus 256gb</t>
         </is>
       </c>
-      <c r="C105" t="inlineStr">
-        <is>
-          <t>14/05/2020</t>
-        </is>
+      <c r="C105" s="2" t="n">
+        <v>43965.97083333333</v>
       </c>
       <c r="D105" t="n">
         <v>450</v>
@@ -3948,10 +3744,8 @@
           <t>7 32gb gold</t>
         </is>
       </c>
-      <c r="C106" t="inlineStr">
-        <is>
-          <t>14/05/2020</t>
-        </is>
+      <c r="C106" s="2" t="n">
+        <v>43965.98541666667</v>
       </c>
       <c r="D106" t="n">
         <v>200</v>
@@ -3982,10 +3776,8 @@
           <t>7 plus</t>
         </is>
       </c>
-      <c r="C107" t="inlineStr">
-        <is>
-          <t>15/05/2020</t>
-        </is>
+      <c r="C107" s="2" t="n">
+        <v>43966.02152777778</v>
       </c>
       <c r="D107" t="n">
         <v>400</v>
@@ -4016,10 +3808,8 @@
           <t>11 pro max midnight green 256gb</t>
         </is>
       </c>
-      <c r="C108" t="inlineStr">
-        <is>
-          <t>15/05/2020</t>
-        </is>
+      <c r="C108" s="2" t="n">
+        <v>43966.02777777778</v>
       </c>
       <c r="D108" t="n">
         <v>1100</v>
@@ -4050,10 +3840,8 @@
           <t>xs 256gb xs max</t>
         </is>
       </c>
-      <c r="C109" t="inlineStr">
-        <is>
-          <t>15/05/2020</t>
-        </is>
+      <c r="C109" s="2" t="n">
+        <v>43966.05763888889</v>
       </c>
       <c r="D109" t="n">
         <v>1</v>
@@ -4084,10 +3872,8 @@
           <t>xs space grey 64gb</t>
         </is>
       </c>
-      <c r="C110" t="inlineStr">
-        <is>
-          <t>14/05/2020</t>
-        </is>
+      <c r="C110" s="2" t="n">
+        <v>43965.61805555555</v>
       </c>
       <c r="D110" t="n">
         <v>530</v>
@@ -4118,10 +3904,8 @@
           <t>8</t>
         </is>
       </c>
-      <c r="C111" t="inlineStr">
-        <is>
-          <t>14/05/2020</t>
-        </is>
+      <c r="C111" s="2" t="n">
+        <v>43965.62777777778</v>
       </c>
       <c r="D111" t="n">
         <v>380</v>
@@ -4152,10 +3936,8 @@
           <t>7 32gb</t>
         </is>
       </c>
-      <c r="C112" t="inlineStr">
-        <is>
-          <t>14/05/2020</t>
-        </is>
+      <c r="C112" s="2" t="n">
+        <v>43965.65208333333</v>
       </c>
       <c r="D112" t="n">
         <v>160</v>
@@ -4186,10 +3968,8 @@
           <t>6s 16gb</t>
         </is>
       </c>
-      <c r="C113" t="inlineStr">
-        <is>
-          <t>14/05/2020</t>
-        </is>
+      <c r="C113" s="2" t="n">
+        <v>43965.67013888889</v>
       </c>
       <c r="D113" t="n">
         <v>90</v>
@@ -4220,10 +4000,8 @@
           <t>6s</t>
         </is>
       </c>
-      <c r="C114" t="inlineStr">
-        <is>
-          <t>14/05/2020</t>
-        </is>
+      <c r="C114" s="2" t="n">
+        <v>43965.69305555556</v>
       </c>
       <c r="D114" t="n">
         <v>140</v>
@@ -4254,10 +4032,8 @@
           <t>xs max 256gb</t>
         </is>
       </c>
-      <c r="C115" t="inlineStr">
-        <is>
-          <t>14/05/2020</t>
-        </is>
+      <c r="C115" s="2" t="n">
+        <v>43965.72708333333</v>
       </c>
       <c r="D115" t="n">
         <v>630</v>
@@ -4288,10 +4064,8 @@
           <t>11 pro max 64 se 64 128</t>
         </is>
       </c>
-      <c r="C116" t="inlineStr">
-        <is>
-          <t>14/05/2020</t>
-        </is>
+      <c r="C116" s="2" t="n">
+        <v>43965.73194444444</v>
       </c>
       <c r="D116" t="n">
         <v>469</v>
@@ -4322,10 +4096,8 @@
           <t>8 64 gb rose gold</t>
         </is>
       </c>
-      <c r="C117" t="inlineStr">
-        <is>
-          <t>14/05/2020</t>
-        </is>
+      <c r="C117" s="2" t="n">
+        <v>43965.34305555555</v>
       </c>
       <c r="D117" t="n">
         <v>250</v>
@@ -4356,10 +4128,8 @@
           <t>6s rose gold 64gb</t>
         </is>
       </c>
-      <c r="C118" t="inlineStr">
-        <is>
-          <t>14/05/2020</t>
-        </is>
+      <c r="C118" s="2" t="n">
+        <v>43965.36805555555</v>
       </c>
       <c r="D118" t="n">
         <v>200</v>
@@ -4390,10 +4160,8 @@
           <t>8 64 gb</t>
         </is>
       </c>
-      <c r="C119" t="inlineStr">
-        <is>
-          <t>14/05/2020</t>
-        </is>
+      <c r="C119" s="2" t="n">
+        <v>43965.38055555556</v>
       </c>
       <c r="D119" t="n">
         <v>120</v>
@@ -4424,10 +4192,8 @@
           <t>7 32 gb</t>
         </is>
       </c>
-      <c r="C120" t="inlineStr">
-        <is>
-          <t>14/05/2020</t>
-        </is>
+      <c r="C120" s="2" t="n">
+        <v>43965.38333333333</v>
       </c>
       <c r="D120" t="n">
         <v>170</v>
@@ -4458,10 +4224,8 @@
           <t>x 256gb</t>
         </is>
       </c>
-      <c r="C121" t="inlineStr">
-        <is>
-          <t>14/05/2020</t>
-        </is>
+      <c r="C121" s="2" t="n">
+        <v>43965.38472222222</v>
       </c>
       <c r="D121" t="n">
         <v>490</v>
@@ -4492,10 +4256,8 @@
           <t>6s 16gb</t>
         </is>
       </c>
-      <c r="C122" t="inlineStr">
-        <is>
-          <t>14/05/2020</t>
-        </is>
+      <c r="C122" s="2" t="n">
+        <v>43965.41319444445</v>
       </c>
       <c r="D122" t="n">
         <v>80</v>
@@ -4526,10 +4288,8 @@
           <t>xs gold 98</t>
         </is>
       </c>
-      <c r="C123" t="inlineStr">
-        <is>
-          <t>14/05/2020</t>
-        </is>
+      <c r="C123" s="2" t="n">
+        <v>43965.47222222222</v>
       </c>
       <c r="D123" t="n">
         <v>480</v>
@@ -4560,10 +4320,8 @@
           <t>7 128 gb</t>
         </is>
       </c>
-      <c r="C124" t="inlineStr">
-        <is>
-          <t>14/05/2020</t>
-        </is>
+      <c r="C124" s="2" t="n">
+        <v>43965.47708333333</v>
       </c>
       <c r="D124" t="n">
         <v>220</v>
@@ -4594,10 +4352,8 @@
           <t>6s 64gb</t>
         </is>
       </c>
-      <c r="C125" t="inlineStr">
-        <is>
-          <t>14/05/2020</t>
-        </is>
+      <c r="C125" s="2" t="n">
+        <v>43965.50694444445</v>
       </c>
       <c r="D125" t="n">
         <v>160</v>
@@ -4628,10 +4384,8 @@
           <t>8 64gb</t>
         </is>
       </c>
-      <c r="C126" t="inlineStr">
-        <is>
-          <t>14/05/2020</t>
-        </is>
+      <c r="C126" s="2" t="n">
+        <v>43965.50763888889</v>
       </c>
       <c r="D126" t="n">
         <v>300</v>
@@ -4662,10 +4416,8 @@
           <t>x 97 100 m</t>
         </is>
       </c>
-      <c r="C127" t="inlineStr">
-        <is>
-          <t>14/05/2020</t>
-        </is>
+      <c r="C127" s="2" t="n">
+        <v>43965.50972222222</v>
       </c>
       <c r="D127" t="n">
         <v>500</v>
@@ -4696,10 +4448,8 @@
           <t>xr 128gb 7</t>
         </is>
       </c>
-      <c r="C128" t="inlineStr">
-        <is>
-          <t>14/05/2020</t>
-        </is>
+      <c r="C128" s="2" t="n">
+        <v>43965.52152777778</v>
       </c>
       <c r="D128" t="n">
         <v>500</v>
@@ -4730,10 +4480,8 @@
           <t>xs 512gb space gray</t>
         </is>
       </c>
-      <c r="C129" t="inlineStr">
-        <is>
-          <t>14/05/2020</t>
-        </is>
+      <c r="C129" s="2" t="n">
+        <v>43965.52777777778</v>
       </c>
       <c r="D129" t="n">
         <v>550</v>
@@ -4764,10 +4512,8 @@
           <t>xs 2</t>
         </is>
       </c>
-      <c r="C130" t="inlineStr">
-        <is>
-          <t>13/05/2020</t>
-        </is>
+      <c r="C130" s="2" t="n">
+        <v>43964.775</v>
       </c>
       <c r="D130" t="n">
         <v>530</v>
@@ -4798,10 +4544,8 @@
           <t>xs max 64gb gold</t>
         </is>
       </c>
-      <c r="C131" t="inlineStr">
-        <is>
-          <t>13/05/2020</t>
-        </is>
+      <c r="C131" s="2" t="n">
+        <v>43964.78888888889</v>
       </c>
       <c r="D131" t="n">
         <v>600</v>
@@ -4832,10 +4576,8 @@
           <t>7plus 32gb</t>
         </is>
       </c>
-      <c r="C132" t="inlineStr">
-        <is>
-          <t>13/05/2020</t>
-        </is>
+      <c r="C132" s="2" t="n">
+        <v>43964.78888888889</v>
       </c>
       <c r="D132" t="n">
         <v>149</v>
@@ -4866,10 +4608,8 @@
           <t>7 128gb</t>
         </is>
       </c>
-      <c r="C133" t="inlineStr">
-        <is>
-          <t>13/05/2020</t>
-        </is>
+      <c r="C133" s="2" t="n">
+        <v>43964.79166666666</v>
       </c>
       <c r="D133" t="n">
         <v>190</v>
@@ -4900,10 +4640,8 @@
           <t>xs max 64gb</t>
         </is>
       </c>
-      <c r="C134" t="inlineStr">
-        <is>
-          <t>13/05/2020</t>
-        </is>
+      <c r="C134" s="2" t="n">
+        <v>43964.80625</v>
       </c>
       <c r="D134" t="n">
         <v>630</v>
@@ -4934,10 +4672,8 @@
           <t>11 128 gb</t>
         </is>
       </c>
-      <c r="C135" t="inlineStr">
-        <is>
-          <t>13/05/2020</t>
-        </is>
+      <c r="C135" s="2" t="n">
+        <v>43964.80694444444</v>
       </c>
       <c r="D135" t="n">
         <v>780</v>
@@ -4968,10 +4704,8 @@
           <t>8 red</t>
         </is>
       </c>
-      <c r="C136" t="inlineStr">
-        <is>
-          <t>13/05/2020</t>
-        </is>
+      <c r="C136" s="2" t="n">
+        <v>43964.85347222222</v>
       </c>
       <c r="D136" t="n">
         <v>290</v>
@@ -5002,10 +4736,8 @@
           <t>7</t>
         </is>
       </c>
-      <c r="C137" t="inlineStr">
-        <is>
-          <t>13/05/2020</t>
-        </is>
+      <c r="C137" s="2" t="n">
+        <v>43964.88194444445</v>
       </c>
       <c r="D137" t="n">
         <v>20</v>
@@ -5036,10 +4768,8 @@
           <t>8 256gb</t>
         </is>
       </c>
-      <c r="C138" t="inlineStr">
-        <is>
-          <t>13/05/2020</t>
-        </is>
+      <c r="C138" s="2" t="n">
+        <v>43964.90555555555</v>
       </c>
       <c r="D138" t="n">
         <v>340</v>
@@ -5070,10 +4800,8 @@
           <t>8 64gb</t>
         </is>
       </c>
-      <c r="C139" t="inlineStr">
-        <is>
-          <t>13/05/2020</t>
-        </is>
+      <c r="C139" s="2" t="n">
+        <v>43964.92222222222</v>
       </c>
       <c r="D139" t="n">
         <v>230</v>
@@ -5104,10 +4832,8 @@
           <t>7 x xs 20</t>
         </is>
       </c>
-      <c r="C140" t="inlineStr">
-        <is>
-          <t>13/05/2020</t>
-        </is>
+      <c r="C140" s="2" t="n">
+        <v>43964.94861111111</v>
       </c>
       <c r="D140" t="n">
         <v>20</v>
@@ -5138,10 +4864,8 @@
           <t>7 plus 128gb jet black</t>
         </is>
       </c>
-      <c r="C141" t="inlineStr">
-        <is>
-          <t>13/05/2020</t>
-        </is>
+      <c r="C141" s="2" t="n">
+        <v>43964.55347222222</v>
       </c>
       <c r="D141" t="n">
         <v>250</v>
@@ -5172,10 +4896,8 @@
           <t>xs gold 98</t>
         </is>
       </c>
-      <c r="C142" t="inlineStr">
-        <is>
-          <t>13/05/2020</t>
-        </is>
+      <c r="C142" s="2" t="n">
+        <v>43964.5625</v>
       </c>
       <c r="D142" t="n">
         <v>500</v>
@@ -5206,10 +4928,8 @@
           <t>6s 16gb spacegrey</t>
         </is>
       </c>
-      <c r="C143" t="inlineStr">
-        <is>
-          <t>13/05/2020</t>
-        </is>
+      <c r="C143" s="2" t="n">
+        <v>43964.5625</v>
       </c>
       <c r="D143" t="n">
         <v>130</v>
@@ -5240,10 +4960,8 @@
           <t>x 256gb</t>
         </is>
       </c>
-      <c r="C144" t="inlineStr">
-        <is>
-          <t>13/05/2020</t>
-        </is>
+      <c r="C144" s="2" t="n">
+        <v>43964.57083333333</v>
       </c>
       <c r="D144" t="n">
         <v>350</v>
@@ -5274,10 +4992,8 @@
           <t>8</t>
         </is>
       </c>
-      <c r="C145" t="inlineStr">
-        <is>
-          <t>13/05/2020</t>
-        </is>
+      <c r="C145" s="2" t="n">
+        <v>43964.65277777778</v>
       </c>
       <c r="D145" t="n">
         <v>290</v>
@@ -5308,10 +5024,8 @@
           <t>6s</t>
         </is>
       </c>
-      <c r="C146" t="inlineStr">
-        <is>
-          <t>13/05/2020</t>
-        </is>
+      <c r="C146" s="2" t="n">
+        <v>43964.66458333333</v>
       </c>
       <c r="D146" t="n">
         <v>230</v>
@@ -5342,10 +5056,8 @@
           <t>7 plus</t>
         </is>
       </c>
-      <c r="C147" t="inlineStr">
-        <is>
-          <t>13/05/2020</t>
-        </is>
+      <c r="C147" s="2" t="n">
+        <v>43964.66597222222</v>
       </c>
       <c r="D147" t="n">
         <v>350</v>
@@ -5376,10 +5088,8 @@
           <t>11 se2020</t>
         </is>
       </c>
-      <c r="C148" t="inlineStr">
-        <is>
-          <t>13/05/2020</t>
-        </is>
+      <c r="C148" s="2" t="n">
+        <v>43964.675</v>
       </c>
       <c r="D148" t="n">
         <v>1200</v>
@@ -5410,10 +5120,8 @@
           <t>11 pro max 64gb midnight green</t>
         </is>
       </c>
-      <c r="C149" t="inlineStr">
-        <is>
-          <t>13/05/2020</t>
-        </is>
+      <c r="C149" s="2" t="n">
+        <v>43964.68055555555</v>
       </c>
       <c r="D149" t="n">
         <v>1050</v>
@@ -5444,10 +5152,8 @@
           <t>7 32 gb</t>
         </is>
       </c>
-      <c r="C150" t="inlineStr">
-        <is>
-          <t>13/05/2020</t>
-        </is>
+      <c r="C150" s="2" t="n">
+        <v>43964.68611111111</v>
       </c>
       <c r="D150" t="n">
         <v>55</v>
@@ -5478,10 +5184,8 @@
           <t>8plus icloud locked</t>
         </is>
       </c>
-      <c r="C151" t="inlineStr">
-        <is>
-          <t>13/05/2020</t>
-        </is>
+      <c r="C151" s="2" t="n">
+        <v>43964.69583333333</v>
       </c>
       <c r="D151" t="n">
         <v>130</v>
@@ -5512,10 +5216,8 @@
           <t>xs max 256</t>
         </is>
       </c>
-      <c r="C152" t="inlineStr">
-        <is>
-          <t>13/05/2020</t>
-        </is>
+      <c r="C152" s="2" t="n">
+        <v>43964.06111111111</v>
       </c>
       <c r="D152" t="n">
         <v>700</v>
@@ -5546,10 +5248,8 @@
           <t>8</t>
         </is>
       </c>
-      <c r="C153" t="inlineStr">
-        <is>
-          <t>13/05/2020</t>
-        </is>
+      <c r="C153" s="2" t="n">
+        <v>43964.09861111111</v>
       </c>
       <c r="D153" t="n">
         <v>90</v>
@@ -5580,10 +5280,8 @@
           <t>7 128g</t>
         </is>
       </c>
-      <c r="C154" t="inlineStr">
-        <is>
-          <t>13/05/2020</t>
-        </is>
+      <c r="C154" s="2" t="n">
+        <v>43964.275</v>
       </c>
       <c r="D154" t="n">
         <v>210</v>
@@ -5614,10 +5312,8 @@
           <t>7 32gb jet black</t>
         </is>
       </c>
-      <c r="C155" t="inlineStr">
-        <is>
-          <t>13/05/2020</t>
-        </is>
+      <c r="C155" s="2" t="n">
+        <v>43964.41944444444</v>
       </c>
       <c r="D155" t="n">
         <v>220</v>
@@ -5648,10 +5344,8 @@
           <t>8 space grey 64gb</t>
         </is>
       </c>
-      <c r="C156" t="inlineStr">
-        <is>
-          <t>13/05/2020</t>
-        </is>
+      <c r="C156" s="2" t="n">
+        <v>43964.43541666667</v>
       </c>
       <c r="D156" t="n">
         <v>360</v>
@@ -5682,10 +5376,8 @@
           <t>7 32gb</t>
         </is>
       </c>
-      <c r="C157" t="inlineStr">
-        <is>
-          <t>12/05/2020</t>
-        </is>
+      <c r="C157" s="2" t="n">
+        <v>43963.67916666667</v>
       </c>
       <c r="D157" t="n">
         <v>220</v>
@@ -5716,10 +5408,8 @@
           <t>6s 32gb</t>
         </is>
       </c>
-      <c r="C158" t="inlineStr">
-        <is>
-          <t>12/05/2020</t>
-        </is>
+      <c r="C158" s="2" t="n">
+        <v>43963.68472222222</v>
       </c>
       <c r="D158" t="n">
         <v>50</v>
@@ -5750,10 +5440,8 @@
           <t>x space grey 64 gb</t>
         </is>
       </c>
-      <c r="C159" t="inlineStr">
-        <is>
-          <t>12/05/2020</t>
-        </is>
+      <c r="C159" s="2" t="n">
+        <v>43963.69305555556</v>
       </c>
       <c r="D159" t="n">
         <v>400</v>
@@ -5784,10 +5472,8 @@
           <t>6 plus 16 gb</t>
         </is>
       </c>
-      <c r="C160" t="inlineStr">
-        <is>
-          <t>12/05/2020</t>
-        </is>
+      <c r="C160" s="2" t="n">
+        <v>43963.71666666667</v>
       </c>
       <c r="D160" t="n">
         <v>150</v>
@@ -5818,10 +5504,8 @@
           <t>8 plus 64gb</t>
         </is>
       </c>
-      <c r="C161" t="inlineStr">
-        <is>
-          <t>12/05/2020</t>
-        </is>
+      <c r="C161" s="2" t="n">
+        <v>43963.76597222222</v>
       </c>
       <c r="D161" t="n">
         <v>340</v>
@@ -5852,10 +5536,8 @@
           <t>7</t>
         </is>
       </c>
-      <c r="C162" t="inlineStr">
-        <is>
-          <t>12/05/2020</t>
-        </is>
+      <c r="C162" s="2" t="n">
+        <v>43963.78402777778</v>
       </c>
       <c r="D162" t="n">
         <v>160</v>
@@ -5886,10 +5568,8 @@
           <t>xs max gold 64gb</t>
         </is>
       </c>
-      <c r="C163" t="inlineStr">
-        <is>
-          <t>12/05/2020</t>
-        </is>
+      <c r="C163" s="2" t="n">
+        <v>43963.79305555556</v>
       </c>
       <c r="D163" t="n">
         <v>590</v>
@@ -5920,10 +5600,8 @@
           <t>7 32gb super</t>
         </is>
       </c>
-      <c r="C164" t="inlineStr">
-        <is>
-          <t>12/05/2020</t>
-        </is>
+      <c r="C164" s="2" t="n">
+        <v>43963.79791666667</v>
       </c>
       <c r="D164" t="n">
         <v>210</v>
@@ -5954,10 +5632,8 @@
           <t>11 green 64gb</t>
         </is>
       </c>
-      <c r="C165" t="inlineStr">
-        <is>
-          <t>12/05/2020</t>
-        </is>
+      <c r="C165" s="2" t="n">
+        <v>43963.80972222222</v>
       </c>
       <c r="D165" t="n">
         <v>700</v>
@@ -5988,10 +5664,8 @@
           <t>6s 16gb</t>
         </is>
       </c>
-      <c r="C166" t="inlineStr">
-        <is>
-          <t>12/05/2020</t>
-        </is>
+      <c r="C166" s="2" t="n">
+        <v>43963.82708333333</v>
       </c>
       <c r="D166" t="n">
         <v>80</v>
@@ -6022,10 +5696,8 @@
           <t>xr x</t>
         </is>
       </c>
-      <c r="C167" t="inlineStr">
-        <is>
-          <t>12/05/2020</t>
-        </is>
+      <c r="C167" s="2" t="n">
+        <v>43963.39097222222</v>
       </c>
       <c r="D167" t="n">
         <v>200</v>
@@ -6056,10 +5728,8 @@
           <t>7</t>
         </is>
       </c>
-      <c r="C168" t="inlineStr">
-        <is>
-          <t>12/05/2020</t>
-        </is>
+      <c r="C168" s="2" t="n">
+        <v>43963.43819444445</v>
       </c>
       <c r="D168" t="n">
         <v>195</v>
@@ -6090,10 +5760,8 @@
           <t>xs gold 98</t>
         </is>
       </c>
-      <c r="C169" t="inlineStr">
-        <is>
-          <t>12/05/2020</t>
-        </is>
+      <c r="C169" s="2" t="n">
+        <v>43963.49236111111</v>
       </c>
       <c r="D169" t="n">
         <v>510</v>
@@ -6124,10 +5792,8 @@
           <t>7 plus 128gb</t>
         </is>
       </c>
-      <c r="C170" t="inlineStr">
-        <is>
-          <t>12/05/2020</t>
-        </is>
+      <c r="C170" s="2" t="n">
+        <v>43963.52083333334</v>
       </c>
       <c r="D170" t="n">
         <v>260</v>
@@ -6158,10 +5824,8 @@
           <t>6 16gb</t>
         </is>
       </c>
-      <c r="C171" t="inlineStr">
-        <is>
-          <t>12/05/2020</t>
-        </is>
+      <c r="C171" s="2" t="n">
+        <v>43963.55694444444</v>
       </c>
       <c r="D171" t="n">
         <v>120</v>
@@ -6192,10 +5856,8 @@
           <t>7 rose gold 32gb</t>
         </is>
       </c>
-      <c r="C172" t="inlineStr">
-        <is>
-          <t>12/05/2020</t>
-        </is>
+      <c r="C172" s="2" t="n">
+        <v>43963.5625</v>
       </c>
       <c r="D172" t="n">
         <v>110</v>
@@ -6226,10 +5888,8 @@
           <t>8 gold</t>
         </is>
       </c>
-      <c r="C173" t="inlineStr">
-        <is>
-          <t>12/05/2020</t>
-        </is>
+      <c r="C173" s="2" t="n">
+        <v>43963.62291666667</v>
       </c>
       <c r="D173" t="n">
         <v>280</v>
@@ -6260,10 +5920,8 @@
           <t>x 64 6</t>
         </is>
       </c>
-      <c r="C174" t="inlineStr">
-        <is>
-          <t>12/05/2020</t>
-        </is>
+      <c r="C174" s="2" t="n">
+        <v>43963.62291666667</v>
       </c>
       <c r="D174" t="n">
         <v>436</v>
@@ -6294,10 +5952,8 @@
           <t>x 64 gb black public</t>
         </is>
       </c>
-      <c r="C175" t="inlineStr">
-        <is>
-          <t>12/05/2020</t>
-        </is>
+      <c r="C175" s="2" t="n">
+        <v>43963.62361111111</v>
       </c>
       <c r="D175" t="n">
         <v>450</v>
@@ -6328,10 +5984,8 @@
           <t>8 plus</t>
         </is>
       </c>
-      <c r="C176" t="inlineStr">
-        <is>
-          <t>11/05/2020</t>
-        </is>
+      <c r="C176" s="2" t="n">
+        <v>43962.83472222222</v>
       </c>
       <c r="D176" t="n">
         <v>400</v>
@@ -6362,10 +6016,8 @@
           <t>7 plus jet black 256gb</t>
         </is>
       </c>
-      <c r="C177" t="inlineStr">
-        <is>
-          <t>11/05/2020</t>
-        </is>
+      <c r="C177" s="2" t="n">
+        <v>43962.88194444445</v>
       </c>
       <c r="D177" t="n">
         <v>300</v>
@@ -6396,10 +6048,8 @@
           <t>7 256 gb</t>
         </is>
       </c>
-      <c r="C178" t="inlineStr">
-        <is>
-          <t>11/05/2020</t>
-        </is>
+      <c r="C178" s="2" t="n">
+        <v>43962.8875</v>
       </c>
       <c r="D178" t="n">
         <v>300</v>
@@ -6430,10 +6080,8 @@
           <t>6 16gb</t>
         </is>
       </c>
-      <c r="C179" t="inlineStr">
-        <is>
-          <t>11/05/2020</t>
-        </is>
+      <c r="C179" s="2" t="n">
+        <v>43962.89930555555</v>
       </c>
       <c r="D179" t="n">
         <v>120</v>
@@ -6464,10 +6112,8 @@
           <t>6s gold 16gb</t>
         </is>
       </c>
-      <c r="C180" t="inlineStr">
-        <is>
-          <t>11/05/2020</t>
-        </is>
+      <c r="C180" s="2" t="n">
+        <v>43962.91597222222</v>
       </c>
       <c r="D180" t="n">
         <v>70</v>
@@ -6498,10 +6144,8 @@
           <t>8plus</t>
         </is>
       </c>
-      <c r="C181" t="inlineStr">
-        <is>
-          <t>11/05/2020</t>
-        </is>
+      <c r="C181" s="2" t="n">
+        <v>43962.91805555556</v>
       </c>
       <c r="D181" t="n">
         <v>130</v>
@@ -6532,10 +6176,8 @@
           <t>6s 64 gb space grey gear4 d30</t>
         </is>
       </c>
-      <c r="C182" t="inlineStr">
-        <is>
-          <t>11/05/2020</t>
-        </is>
+      <c r="C182" s="2" t="n">
+        <v>43962.94583333333</v>
       </c>
       <c r="D182" t="n">
         <v>165</v>
@@ -6566,10 +6208,8 @@
           <t>xs 64 gb space grey</t>
         </is>
       </c>
-      <c r="C183" t="inlineStr">
-        <is>
-          <t>11/05/2020</t>
-        </is>
+      <c r="C183" s="2" t="n">
+        <v>43962.53472222222</v>
       </c>
       <c r="D183" t="n">
         <v>500</v>
@@ -6600,10 +6240,8 @@
           <t>x 64 gb</t>
         </is>
       </c>
-      <c r="C184" t="inlineStr">
-        <is>
-          <t>11/05/2020</t>
-        </is>
+      <c r="C184" s="2" t="n">
+        <v>43962.56944444445</v>
       </c>
       <c r="D184" t="n">
         <v>520</v>
@@ -6634,10 +6272,8 @@
           <t>xr 64gb</t>
         </is>
       </c>
-      <c r="C185" t="inlineStr">
-        <is>
-          <t>11/05/2020</t>
-        </is>
+      <c r="C185" s="2" t="n">
+        <v>43962.57638888889</v>
       </c>
       <c r="D185" t="n">
         <v>450</v>
@@ -6668,10 +6304,8 @@
           <t>7 plus jet black 128gb unlocked</t>
         </is>
       </c>
-      <c r="C186" t="inlineStr">
-        <is>
-          <t>11/05/2020</t>
-        </is>
+      <c r="C186" s="2" t="n">
+        <v>43962.57986111111</v>
       </c>
       <c r="D186" t="n">
         <v>330</v>
@@ -6702,10 +6336,8 @@
           <t>x 256gb</t>
         </is>
       </c>
-      <c r="C187" t="inlineStr">
-        <is>
-          <t>11/05/2020</t>
-        </is>
+      <c r="C187" s="2" t="n">
+        <v>43962.59930555556</v>
       </c>
       <c r="D187" t="n">
         <v>500</v>
@@ -6736,10 +6368,8 @@
           <t>xs 64gb space gray 100</t>
         </is>
       </c>
-      <c r="C188" t="inlineStr">
-        <is>
-          <t>11/05/2020</t>
-        </is>
+      <c r="C188" s="2" t="n">
+        <v>43962.62013888889</v>
       </c>
       <c r="D188" t="n">
         <v>520</v>
@@ -6770,10 +6400,8 @@
           <t>xs max 64gb</t>
         </is>
       </c>
-      <c r="C189" t="inlineStr">
-        <is>
-          <t>11/05/2020</t>
-        </is>
+      <c r="C189" s="2" t="n">
+        <v>43962.65208333333</v>
       </c>
       <c r="D189" t="n">
         <v>640</v>
@@ -6804,10 +6432,8 @@
           <t>6s gold rose</t>
         </is>
       </c>
-      <c r="C190" t="inlineStr">
-        <is>
-          <t>11/05/2020</t>
-        </is>
+      <c r="C190" s="2" t="n">
+        <v>43962.67708333334</v>
       </c>
       <c r="D190" t="n">
         <v>145</v>
@@ -6838,10 +6464,8 @@
           <t>8 plus</t>
         </is>
       </c>
-      <c r="C191" t="inlineStr">
-        <is>
-          <t>11/05/2020</t>
-        </is>
+      <c r="C191" s="2" t="n">
+        <v>43962.74861111111</v>
       </c>
       <c r="D191" t="n">
         <v>400</v>
@@ -6872,10 +6496,8 @@
           <t>xs 64gb</t>
         </is>
       </c>
-      <c r="C192" t="inlineStr">
-        <is>
-          <t>10/05/2020</t>
-        </is>
+      <c r="C192" s="2" t="n">
+        <v>43961.91458333333</v>
       </c>
       <c r="D192" t="n">
         <v>430</v>
@@ -6906,10 +6528,8 @@
           <t>11 pro 256 silver</t>
         </is>
       </c>
-      <c r="C193" t="inlineStr">
-        <is>
-          <t>10/05/2020</t>
-        </is>
+      <c r="C193" s="2" t="n">
+        <v>43961.94722222222</v>
       </c>
       <c r="D193" t="n">
         <v>1050</v>
@@ -6940,10 +6560,8 @@
           <t>x 64gb</t>
         </is>
       </c>
-      <c r="C194" t="inlineStr">
-        <is>
-          <t>11/05/2020</t>
-        </is>
+      <c r="C194" s="2" t="n">
+        <v>43962.07569444444</v>
       </c>
       <c r="D194" t="n">
         <v>460</v>
@@ -6974,10 +6592,8 @@
           <t>xs max 64gb</t>
         </is>
       </c>
-      <c r="C195" t="inlineStr">
-        <is>
-          <t>11/05/2020</t>
-        </is>
+      <c r="C195" s="2" t="n">
+        <v>43962.08055555556</v>
       </c>
       <c r="D195" t="n">
         <v>620</v>
@@ -7008,10 +6624,8 @@
           <t>xs 256gb gold 95</t>
         </is>
       </c>
-      <c r="C196" t="inlineStr">
-        <is>
-          <t>11/05/2020</t>
-        </is>
+      <c r="C196" s="2" t="n">
+        <v>43962.15</v>
       </c>
       <c r="D196" t="n">
         <v>570</v>
@@ -7042,10 +6656,8 @@
           <t>6s 16gb</t>
         </is>
       </c>
-      <c r="C197" t="inlineStr">
-        <is>
-          <t>11/05/2020</t>
-        </is>
+      <c r="C197" s="2" t="n">
+        <v>43962.32777777778</v>
       </c>
       <c r="D197" t="n">
         <v>250</v>
@@ -7076,10 +6688,8 @@
           <t>7 128gb</t>
         </is>
       </c>
-      <c r="C198" t="inlineStr">
-        <is>
-          <t>11/05/2020</t>
-        </is>
+      <c r="C198" s="2" t="n">
+        <v>43962.40694444445</v>
       </c>
       <c r="D198" t="n">
         <v>225</v>
@@ -7110,10 +6720,8 @@
           <t>11 pro</t>
         </is>
       </c>
-      <c r="C199" t="inlineStr">
-        <is>
-          <t>11/05/2020</t>
-        </is>
+      <c r="C199" s="2" t="n">
+        <v>43962.40972222222</v>
       </c>
       <c r="D199" t="n">
         <v>0</v>
@@ -7144,10 +6752,8 @@
           <t>6s 32gb</t>
         </is>
       </c>
-      <c r="C200" t="inlineStr">
-        <is>
-          <t>11/05/2020</t>
-        </is>
+      <c r="C200" s="2" t="n">
+        <v>43962.43333333333</v>
       </c>
       <c r="D200" t="n">
         <v>150</v>
@@ -7178,10 +6784,8 @@
           <t>x 256gb</t>
         </is>
       </c>
-      <c r="C201" t="inlineStr">
-        <is>
-          <t>10/05/2020</t>
-        </is>
+      <c r="C201" s="2" t="n">
+        <v>43961.57430555556</v>
       </c>
       <c r="D201" t="n">
         <v>390</v>
@@ -7212,10 +6816,8 @@
           <t>11 pro max 64gb gold</t>
         </is>
       </c>
-      <c r="C202" t="inlineStr">
-        <is>
-          <t>10/05/2020</t>
-        </is>
+      <c r="C202" s="2" t="n">
+        <v>43961.57638888889</v>
       </c>
       <c r="D202" t="n">
         <v>940</v>
@@ -7246,10 +6848,8 @@
           <t>6s plus 64gb silver</t>
         </is>
       </c>
-      <c r="C203" t="inlineStr">
-        <is>
-          <t>10/05/2020</t>
-        </is>
+      <c r="C203" s="2" t="n">
+        <v>43961.60972222222</v>
       </c>
       <c r="D203" t="n">
         <v>140</v>
@@ -7280,10 +6880,8 @@
           <t>xs max 512gb</t>
         </is>
       </c>
-      <c r="C204" t="inlineStr">
-        <is>
-          <t>10/05/2020</t>
-        </is>
+      <c r="C204" s="2" t="n">
+        <v>43961.61041666667</v>
       </c>
       <c r="D204" t="n">
         <v>799</v>
@@ -7314,10 +6912,8 @@
           <t>7 32gb</t>
         </is>
       </c>
-      <c r="C205" t="inlineStr">
-        <is>
-          <t>10/05/2020</t>
-        </is>
+      <c r="C205" s="2" t="n">
+        <v>43961.61805555555</v>
       </c>
       <c r="D205" t="n">
         <v>220</v>
@@ -7348,10 +6944,8 @@
           <t>6s plus 32gb</t>
         </is>
       </c>
-      <c r="C206" t="inlineStr">
-        <is>
-          <t>10/05/2020</t>
-        </is>
+      <c r="C206" s="2" t="n">
+        <v>43961.63888888889</v>
       </c>
       <c r="D206" t="n">
         <v>250</v>
@@ -7382,10 +6976,8 @@
           <t>6s icloud locked</t>
         </is>
       </c>
-      <c r="C207" t="inlineStr">
-        <is>
-          <t>10/05/2020</t>
-        </is>
+      <c r="C207" s="2" t="n">
+        <v>43961.68402777778</v>
       </c>
       <c r="D207" t="n">
         <v>45</v>
@@ -7416,10 +7008,8 @@
           <t>x 256</t>
         </is>
       </c>
-      <c r="C208" t="inlineStr">
-        <is>
-          <t>10/05/2020</t>
-        </is>
+      <c r="C208" s="2" t="n">
+        <v>43961.70486111111</v>
       </c>
       <c r="D208" t="n">
         <v>479</v>
@@ -7450,10 +7040,8 @@
           <t>x 64 silver</t>
         </is>
       </c>
-      <c r="C209" t="inlineStr">
-        <is>
-          <t>10/05/2020</t>
-        </is>
+      <c r="C209" s="2" t="n">
+        <v>43961.71180555555</v>
       </c>
       <c r="D209" t="n">
         <v>480</v>
@@ -7484,10 +7072,8 @@
           <t>11 black 64gb</t>
         </is>
       </c>
-      <c r="C210" t="inlineStr">
-        <is>
-          <t>09/05/2020</t>
-        </is>
+      <c r="C210" s="2" t="n">
+        <v>43960.75555555556</v>
       </c>
       <c r="D210" t="n">
         <v>670</v>
@@ -7518,10 +7104,8 @@
           <t>6s plus 64gb space gray</t>
         </is>
       </c>
-      <c r="C211" t="inlineStr">
-        <is>
-          <t>09/05/2020</t>
-        </is>
+      <c r="C211" s="2" t="n">
+        <v>43960.79375</v>
       </c>
       <c r="D211" t="n">
         <v>110</v>
@@ -7552,10 +7136,8 @@
           <t>7 plus 128gb black</t>
         </is>
       </c>
-      <c r="C212" t="inlineStr">
-        <is>
-          <t>09/05/2020</t>
-        </is>
+      <c r="C212" s="2" t="n">
+        <v>43960.83680555555</v>
       </c>
       <c r="D212" t="n">
         <v>360</v>
@@ -7586,10 +7168,8 @@
           <t>7 32 gb</t>
         </is>
       </c>
-      <c r="C213" t="inlineStr">
-        <is>
-          <t>09/05/2020</t>
-        </is>
+      <c r="C213" s="2" t="n">
+        <v>43960.84375</v>
       </c>
       <c r="D213" t="n">
         <v>190</v>
@@ -7620,10 +7200,8 @@
           <t>8 plus 256gb gold model a1897 24</t>
         </is>
       </c>
-      <c r="C214" t="inlineStr">
-        <is>
-          <t>09/05/2020</t>
-        </is>
+      <c r="C214" s="2" t="n">
+        <v>43960.85416666666</v>
       </c>
       <c r="D214" t="n">
         <v>650</v>
@@ -7654,10 +7232,8 @@
           <t>7 silver white 128gb smart battery</t>
         </is>
       </c>
-      <c r="C215" t="inlineStr">
-        <is>
-          <t>09/05/2020</t>
-        </is>
+      <c r="C215" s="2" t="n">
+        <v>43960.86458333334</v>
       </c>
       <c r="D215" t="n">
         <v>250</v>
@@ -7688,10 +7264,8 @@
           <t>xr 128gb</t>
         </is>
       </c>
-      <c r="C216" t="inlineStr">
-        <is>
-          <t>09/05/2020</t>
-        </is>
+      <c r="C216" s="2" t="n">
+        <v>43960.86527777778</v>
       </c>
       <c r="D216" t="n">
         <v>490</v>
@@ -7722,10 +7296,8 @@
           <t>6s plus me android</t>
         </is>
       </c>
-      <c r="C217" t="inlineStr">
-        <is>
-          <t>09/05/2020</t>
-        </is>
+      <c r="C217" s="2" t="n">
+        <v>43960.93680555555</v>
       </c>
       <c r="D217" t="n">
         <v>170</v>
@@ -7756,10 +7328,8 @@
           <t>xs max 256gb 11 pro max 256gb</t>
         </is>
       </c>
-      <c r="C218" t="inlineStr">
-        <is>
-          <t>09/05/2020</t>
-        </is>
+      <c r="C218" s="2" t="n">
+        <v>43960.95833333334</v>
       </c>
       <c r="D218" t="n">
         <v>300</v>
@@ -7790,10 +7360,8 @@
           <t>6s 16gb</t>
         </is>
       </c>
-      <c r="C219" t="inlineStr">
-        <is>
-          <t>09/05/2020</t>
-        </is>
+      <c r="C219" s="2" t="n">
+        <v>43960.44236111111</v>
       </c>
       <c r="D219" t="n">
         <v>99</v>
@@ -7824,10 +7392,8 @@
           <t>8 plus 64 gb</t>
         </is>
       </c>
-      <c r="C220" t="inlineStr">
-        <is>
-          <t>09/05/2020</t>
-        </is>
+      <c r="C220" s="2" t="n">
+        <v>43960.53402777778</v>
       </c>
       <c r="D220" t="n">
         <v>400</v>
@@ -7858,10 +7424,8 @@
           <t>xs max</t>
         </is>
       </c>
-      <c r="C221" t="inlineStr">
-        <is>
-          <t>09/05/2020</t>
-        </is>
+      <c r="C221" s="2" t="n">
+        <v>43960.56527777778</v>
       </c>
       <c r="D221" t="n">
         <v>550</v>
@@ -7892,10 +7456,8 @@
           <t>xs max 64 gold</t>
         </is>
       </c>
-      <c r="C222" t="inlineStr">
-        <is>
-          <t>09/05/2020</t>
-        </is>
+      <c r="C222" s="2" t="n">
+        <v>43960.6125</v>
       </c>
       <c r="D222" t="n">
         <v>580</v>
@@ -7926,10 +7488,8 @@
           <t>11 64gb</t>
         </is>
       </c>
-      <c r="C223" t="inlineStr">
-        <is>
-          <t>09/05/2020</t>
-        </is>
+      <c r="C223" s="2" t="n">
+        <v>43960.64236111111</v>
       </c>
       <c r="D223" t="n">
         <v>630</v>
@@ -7960,10 +7520,8 @@
           <t>11 pro max 64gb airpods 2019 watch series 3 42mm</t>
         </is>
       </c>
-      <c r="C224" t="inlineStr">
-        <is>
-          <t>09/05/2020</t>
-        </is>
+      <c r="C224" s="2" t="n">
+        <v>43960.64444444444</v>
       </c>
       <c r="D224" t="n">
         <v>1250</v>
@@ -7994,10 +7552,8 @@
           <t>xs max 64gb 256 gb space grey gold</t>
         </is>
       </c>
-      <c r="C225" t="inlineStr">
-        <is>
-          <t>09/05/2020</t>
-        </is>
+      <c r="C225" s="2" t="n">
+        <v>43960.67569444444</v>
       </c>
       <c r="D225" t="n">
         <v>650</v>
@@ -8028,10 +7584,8 @@
           <t>xs gold 98</t>
         </is>
       </c>
-      <c r="C226" t="inlineStr">
-        <is>
-          <t>09/05/2020</t>
-        </is>
+      <c r="C226" s="2" t="n">
+        <v>43960.67708333334</v>
       </c>
       <c r="D226" t="n">
         <v>530</v>
@@ -8062,10 +7616,8 @@
           <t>xs gold 98</t>
         </is>
       </c>
-      <c r="C227" t="inlineStr">
-        <is>
-          <t>08/05/2020</t>
-        </is>
+      <c r="C227" s="2" t="n">
+        <v>43959.80972222222</v>
       </c>
       <c r="D227" t="n">
         <v>530</v>
@@ -8096,10 +7648,8 @@
           <t>xs max</t>
         </is>
       </c>
-      <c r="C228" t="inlineStr">
-        <is>
-          <t>08/05/2020</t>
-        </is>
+      <c r="C228" s="2" t="n">
+        <v>43959.81875</v>
       </c>
       <c r="D228" t="n">
         <v>580</v>
@@ -8130,10 +7680,8 @@
           <t>8 256gb red product</t>
         </is>
       </c>
-      <c r="C229" t="inlineStr">
-        <is>
-          <t>08/05/2020</t>
-        </is>
+      <c r="C229" s="2" t="n">
+        <v>43959.89444444444</v>
       </c>
       <c r="D229" t="n">
         <v>450</v>
@@ -8164,10 +7712,8 @@
           <t>7 plus 32gb roz gold 100</t>
         </is>
       </c>
-      <c r="C230" t="inlineStr">
-        <is>
-          <t>08/05/2020</t>
-        </is>
+      <c r="C230" s="2" t="n">
+        <v>43959.89513888889</v>
       </c>
       <c r="D230" t="n">
         <v>295</v>
@@ -8198,10 +7744,8 @@
           <t>x 64gb</t>
         </is>
       </c>
-      <c r="C231" t="inlineStr">
-        <is>
-          <t>08/05/2020</t>
-        </is>
+      <c r="C231" s="2" t="n">
+        <v>43959.89583333334</v>
       </c>
       <c r="D231" t="n">
         <v>500</v>
@@ -8232,10 +7776,8 @@
           <t>6 16 gb ios 10 3 3</t>
         </is>
       </c>
-      <c r="C232" t="inlineStr">
-        <is>
-          <t>08/05/2020</t>
-        </is>
+      <c r="C232" s="2" t="n">
+        <v>43959.89652777778</v>
       </c>
       <c r="D232" t="n">
         <v>80</v>
@@ -8266,10 +7808,8 @@
           <t>7 plus 32gb black 100</t>
         </is>
       </c>
-      <c r="C233" t="inlineStr">
-        <is>
-          <t>08/05/2020</t>
-        </is>
+      <c r="C233" s="2" t="n">
+        <v>43959.89722222222</v>
       </c>
       <c r="D233" t="n">
         <v>295</v>
@@ -8300,10 +7840,8 @@
           <t>xs max 512gb watch 2 42mm</t>
         </is>
       </c>
-      <c r="C234" t="inlineStr">
-        <is>
-          <t>08/05/2020</t>
-        </is>
+      <c r="C234" s="2" t="n">
+        <v>43959.89861111111</v>
       </c>
       <c r="D234" t="n">
         <v>820150</v>
@@ -8334,10 +7872,8 @@
           <t>x</t>
         </is>
       </c>
-      <c r="C235" t="inlineStr">
-        <is>
-          <t>08/05/2020</t>
-        </is>
+      <c r="C235" s="2" t="n">
+        <v>43959.48402777778</v>
       </c>
       <c r="D235" t="n">
         <v>580</v>
@@ -8368,10 +7904,8 @@
           <t>8 silver 64gb</t>
         </is>
       </c>
-      <c r="C236" t="inlineStr">
-        <is>
-          <t>08/05/2020</t>
-        </is>
+      <c r="C236" s="2" t="n">
+        <v>43959.50763888889</v>
       </c>
       <c r="D236" t="n">
         <v>270</v>
@@ -8402,10 +7936,8 @@
           <t>11 pro max 512</t>
         </is>
       </c>
-      <c r="C237" t="inlineStr">
-        <is>
-          <t>08/05/2020</t>
-        </is>
+      <c r="C237" s="2" t="n">
+        <v>43959.50972222222</v>
       </c>
       <c r="D237" t="n">
         <v>1120</v>
@@ -8436,10 +7968,8 @@
           <t>xs max 64gb</t>
         </is>
       </c>
-      <c r="C238" t="inlineStr">
-        <is>
-          <t>08/05/2020</t>
-        </is>
+      <c r="C238" s="2" t="n">
+        <v>43959.65833333333</v>
       </c>
       <c r="D238" t="n">
         <v>650</v>
@@ -8470,10 +8000,8 @@
           <t>7 32 gb gold battery 100</t>
         </is>
       </c>
-      <c r="C239" t="inlineStr">
-        <is>
-          <t>08/05/2020</t>
-        </is>
+      <c r="C239" s="2" t="n">
+        <v>43959.67430555556</v>
       </c>
       <c r="D239" t="n">
         <v>240</v>
@@ -8504,10 +8032,8 @@
           <t>8 64gb space grey 350euro</t>
         </is>
       </c>
-      <c r="C240" t="inlineStr">
-        <is>
-          <t>08/05/2020</t>
-        </is>
+      <c r="C240" s="2" t="n">
+        <v>43959.68888888889</v>
       </c>
       <c r="D240" t="n">
         <v>350</v>
@@ -8538,10 +8064,8 @@
           <t>7 silver 32gb</t>
         </is>
       </c>
-      <c r="C241" t="inlineStr">
-        <is>
-          <t>07/05/2020</t>
-        </is>
+      <c r="C241" s="2" t="n">
+        <v>43958.93055555555</v>
       </c>
       <c r="D241" t="n">
         <v>200</v>
@@ -8572,10 +8096,8 @@
           <t>8 rose gold 64gb</t>
         </is>
       </c>
-      <c r="C242" t="inlineStr">
-        <is>
-          <t>07/05/2020</t>
-        </is>
+      <c r="C242" s="2" t="n">
+        <v>43958.94791666666</v>
       </c>
       <c r="D242" t="n">
         <v>220</v>
@@ -8606,10 +8128,8 @@
           <t>xs max 512gb</t>
         </is>
       </c>
-      <c r="C243" t="inlineStr">
-        <is>
-          <t>08/05/2020</t>
-        </is>
+      <c r="C243" s="2" t="n">
+        <v>43959.09652777778</v>
       </c>
       <c r="D243" t="n">
         <v>730</v>
@@ -8640,10 +8160,8 @@
           <t>xs max 512gb</t>
         </is>
       </c>
-      <c r="C244" t="inlineStr">
-        <is>
-          <t>08/05/2020</t>
-        </is>
+      <c r="C244" s="2" t="n">
+        <v>43959.09861111111</v>
       </c>
       <c r="D244" t="n">
         <v>730</v>
@@ -8674,10 +8192,8 @@
           <t>6 16gb</t>
         </is>
       </c>
-      <c r="C245" t="inlineStr">
-        <is>
-          <t>08/05/2020</t>
-        </is>
+      <c r="C245" s="2" t="n">
+        <v>43959.10625</v>
       </c>
       <c r="D245" t="n">
         <v>110</v>
@@ -8708,10 +8224,8 @@
           <t>xs max 64gb silver ios 13 3</t>
         </is>
       </c>
-      <c r="C246" t="inlineStr">
-        <is>
-          <t>07/05/2020</t>
-        </is>
+      <c r="C246" s="2" t="n">
+        <v>43958.66041666667</v>
       </c>
       <c r="D246" t="n">
         <v>650</v>
@@ -8742,10 +8256,8 @@
           <t>7 plus battery</t>
         </is>
       </c>
-      <c r="C247" t="inlineStr">
-        <is>
-          <t>07/05/2020</t>
-        </is>
+      <c r="C247" s="2" t="n">
+        <v>43958.66388888889</v>
       </c>
       <c r="D247" t="n">
         <v>15</v>
@@ -8776,10 +8288,8 @@
           <t>6s rose gold</t>
         </is>
       </c>
-      <c r="C248" t="inlineStr">
-        <is>
-          <t>07/05/2020</t>
-        </is>
+      <c r="C248" s="2" t="n">
+        <v>43958.70555555556</v>
       </c>
       <c r="D248" t="n">
         <v>170</v>
@@ -8810,10 +8320,8 @@
           <t>x silver</t>
         </is>
       </c>
-      <c r="C249" t="inlineStr">
-        <is>
-          <t>07/05/2020</t>
-        </is>
+      <c r="C249" s="2" t="n">
+        <v>43958.71319444444</v>
       </c>
       <c r="D249" t="n">
         <v>430</v>
@@ -8844,10 +8352,8 @@
           <t>8 64gb space gray</t>
         </is>
       </c>
-      <c r="C250" t="inlineStr">
-        <is>
-          <t>07/05/2020</t>
-        </is>
+      <c r="C250" s="2" t="n">
+        <v>43958.74722222222</v>
       </c>
       <c r="D250" t="n">
         <v>340</v>
@@ -8878,10 +8384,8 @@
           <t>7 32gb super</t>
         </is>
       </c>
-      <c r="C251" t="inlineStr">
-        <is>
-          <t>07/05/2020</t>
-        </is>
+      <c r="C251" s="2" t="n">
+        <v>43958.76319444444</v>
       </c>
       <c r="D251" t="n">
         <v>210</v>
@@ -8912,10 +8416,8 @@
           <t>x</t>
         </is>
       </c>
-      <c r="C252" t="inlineStr">
-        <is>
-          <t>07/05/2020</t>
-        </is>
+      <c r="C252" s="2" t="n">
+        <v>43958.35833333333</v>
       </c>
       <c r="D252" t="n">
         <v>350</v>
@@ -8946,10 +8448,8 @@
           <t>64gb</t>
         </is>
       </c>
-      <c r="C253" t="inlineStr">
-        <is>
-          <t>07/05/2020</t>
-        </is>
+      <c r="C253" s="2" t="n">
+        <v>43958.42986111111</v>
       </c>
       <c r="D253" t="n">
         <v>550</v>
@@ -8980,10 +8480,8 @@
           <t>11 256 white 20</t>
         </is>
       </c>
-      <c r="C254" t="inlineStr">
-        <is>
-          <t>07/05/2020</t>
-        </is>
+      <c r="C254" s="2" t="n">
+        <v>43958.43888888889</v>
       </c>
       <c r="D254" t="n">
         <v>800</v>
@@ -9014,10 +8512,8 @@
           <t>xs max 256gb gold</t>
         </is>
       </c>
-      <c r="C255" t="inlineStr">
-        <is>
-          <t>07/05/2020</t>
-        </is>
+      <c r="C255" s="2" t="n">
+        <v>43958.48333333333</v>
       </c>
       <c r="D255" t="n">
         <v>1</v>
@@ -9048,10 +8544,8 @@
           <t>xs gold 98</t>
         </is>
       </c>
-      <c r="C256" t="inlineStr">
-        <is>
-          <t>07/05/2020</t>
-        </is>
+      <c r="C256" s="2" t="n">
+        <v>43958.50694444445</v>
       </c>
       <c r="D256" t="n">
         <v>530</v>
@@ -9082,10 +8576,8 @@
           <t>6s 5c</t>
         </is>
       </c>
-      <c r="C257" t="inlineStr">
-        <is>
-          <t>06/05/2020</t>
-        </is>
+      <c r="C257" s="2" t="n">
+        <v>43957.57291666666</v>
       </c>
       <c r="D257" t="n">
         <v>60</v>
@@ -9116,10 +8608,8 @@
           <t>11 pro max case razer</t>
         </is>
       </c>
-      <c r="C258" t="inlineStr">
-        <is>
-          <t>06/05/2020</t>
-        </is>
+      <c r="C258" s="2" t="n">
+        <v>43957.59513888889</v>
       </c>
       <c r="D258" t="n">
         <v>12</v>
@@ -9150,10 +8640,8 @@
           <t>6s plus 16gb rose gold</t>
         </is>
       </c>
-      <c r="C259" t="inlineStr">
-        <is>
-          <t>06/05/2020</t>
-        </is>
+      <c r="C259" s="2" t="n">
+        <v>43957.62361111111</v>
       </c>
       <c r="D259" t="n">
         <v>135</v>
@@ -9184,10 +8672,8 @@
           <t>11 promax black 256 1 5 cosmote</t>
         </is>
       </c>
-      <c r="C260" t="inlineStr">
-        <is>
-          <t>06/05/2020</t>
-        </is>
+      <c r="C260" s="2" t="n">
+        <v>43957.63472222222</v>
       </c>
       <c r="D260" t="n">
         <v>1</v>
@@ -9218,10 +8704,8 @@
           <t>x</t>
         </is>
       </c>
-      <c r="C261" t="inlineStr">
-        <is>
-          <t>06/05/2020</t>
-        </is>
+      <c r="C261" s="2" t="n">
+        <v>43957.64583333334</v>
       </c>
       <c r="D261" t="n">
         <v>450</v>
@@ -9252,10 +8736,8 @@
           <t>11 pro max 64g</t>
         </is>
       </c>
-      <c r="C262" t="inlineStr">
-        <is>
-          <t>06/05/2020</t>
-        </is>
+      <c r="C262" s="2" t="n">
+        <v>43957.72777777778</v>
       </c>
       <c r="D262" t="n">
         <v>950</v>
@@ -9286,10 +8768,8 @@
           <t>8 plus</t>
         </is>
       </c>
-      <c r="C263" t="inlineStr">
-        <is>
-          <t>06/05/2020</t>
-        </is>
+      <c r="C263" s="2" t="n">
+        <v>43957.83958333333</v>
       </c>
       <c r="D263" t="n">
         <v>380</v>
@@ -9320,10 +8800,8 @@
           <t>8 plus 88</t>
         </is>
       </c>
-      <c r="C264" t="inlineStr">
-        <is>
-          <t>05/05/2020</t>
-        </is>
+      <c r="C264" s="2" t="n">
+        <v>43956.88541666666</v>
       </c>
       <c r="D264" t="n">
         <v>380</v>
@@ -9354,10 +8832,8 @@
           <t>x 64gb space grey</t>
         </is>
       </c>
-      <c r="C265" t="inlineStr">
-        <is>
-          <t>05/05/2020</t>
-        </is>
+      <c r="C265" s="2" t="n">
+        <v>43956.91805555556</v>
       </c>
       <c r="D265" t="n">
         <v>420</v>
@@ -9388,10 +8864,8 @@
           <t>7 128 gb</t>
         </is>
       </c>
-      <c r="C266" t="inlineStr">
-        <is>
-          <t>05/05/2020</t>
-        </is>
+      <c r="C266" s="2" t="n">
+        <v>43956.94305555556</v>
       </c>
       <c r="D266" t="n">
         <v>150</v>
@@ -9422,10 +8896,8 @@
           <t>x</t>
         </is>
       </c>
-      <c r="C267" t="inlineStr">
-        <is>
-          <t>05/05/2020</t>
-        </is>
+      <c r="C267" s="2" t="n">
+        <v>43956.95138888889</v>
       </c>
       <c r="D267" t="n">
         <v>450</v>
@@ -9456,10 +8928,8 @@
           <t>8 64gb</t>
         </is>
       </c>
-      <c r="C268" t="inlineStr">
-        <is>
-          <t>05/05/2020</t>
-        </is>
+      <c r="C268" s="2" t="n">
+        <v>43956.98541666667</v>
       </c>
       <c r="D268" t="n">
         <v>350</v>
@@ -9490,10 +8960,8 @@
           <t>x 64 gb</t>
         </is>
       </c>
-      <c r="C269" t="inlineStr">
-        <is>
-          <t>05/05/2020</t>
-        </is>
+      <c r="C269" s="2" t="n">
+        <v>43956.99513888889</v>
       </c>
       <c r="D269" t="n">
         <v>550</v>
@@ -9524,10 +8992,8 @@
           <t>8 64gb</t>
         </is>
       </c>
-      <c r="C270" t="inlineStr">
-        <is>
-          <t>06/05/2020</t>
-        </is>
+      <c r="C270" s="2" t="n">
+        <v>43957.02222222222</v>
       </c>
       <c r="D270" t="n">
         <v>280</v>
@@ -9558,10 +9024,8 @@
           <t>x 256gb</t>
         </is>
       </c>
-      <c r="C271" t="inlineStr">
-        <is>
-          <t>05/05/2020</t>
-        </is>
+      <c r="C271" s="2" t="n">
+        <v>43956.46180555555</v>
       </c>
       <c r="D271" t="n">
         <v>500</v>
@@ -9592,10 +9056,8 @@
           <t>xs 64 gb space grey</t>
         </is>
       </c>
-      <c r="C272" t="inlineStr">
-        <is>
-          <t>05/05/2020</t>
-        </is>
+      <c r="C272" s="2" t="n">
+        <v>43956.525</v>
       </c>
       <c r="D272" t="n">
         <v>480</v>
@@ -9626,10 +9088,8 @@
           <t>6s</t>
         </is>
       </c>
-      <c r="C273" t="inlineStr">
-        <is>
-          <t>05/05/2020</t>
-        </is>
+      <c r="C273" s="2" t="n">
+        <v>43956.53263888889</v>
       </c>
       <c r="D273" t="n">
         <v>60</v>
@@ -9660,10 +9120,8 @@
           <t>xs max 64 gb</t>
         </is>
       </c>
-      <c r="C274" t="inlineStr">
-        <is>
-          <t>05/05/2020</t>
-        </is>
+      <c r="C274" s="2" t="n">
+        <v>43956.59027777778</v>
       </c>
       <c r="D274" t="n">
         <v>580</v>
@@ -9694,10 +9152,8 @@
           <t>6 plus 16g</t>
         </is>
       </c>
-      <c r="C275" t="inlineStr">
-        <is>
-          <t>04/05/2020</t>
-        </is>
+      <c r="C275" s="2" t="n">
+        <v>43955.69097222222</v>
       </c>
       <c r="D275" t="n">
         <v>130</v>
@@ -9728,10 +9184,8 @@
           <t>7 plus 32 gb silver 97 battery</t>
         </is>
       </c>
-      <c r="C276" t="inlineStr">
-        <is>
-          <t>04/05/2020</t>
-        </is>
+      <c r="C276" s="2" t="n">
+        <v>43955.73472222222</v>
       </c>
       <c r="D276" t="n">
         <v>250</v>
@@ -9762,10 +9216,8 @@
           <t>11 pro max gold 64gb</t>
         </is>
       </c>
-      <c r="C277" t="inlineStr">
-        <is>
-          <t>04/05/2020</t>
-        </is>
+      <c r="C277" s="2" t="n">
+        <v>43955.12986111111</v>
       </c>
       <c r="D277" t="n">
         <v>1050</v>
@@ -9796,10 +9248,8 @@
           <t>xs</t>
         </is>
       </c>
-      <c r="C278" t="inlineStr">
-        <is>
-          <t>04/05/2020</t>
-        </is>
+      <c r="C278" s="2" t="n">
+        <v>43955.24791666667</v>
       </c>
       <c r="D278" t="n">
         <v>130</v>
@@ -9830,10 +9280,8 @@
           <t>6s 32gb space grey</t>
         </is>
       </c>
-      <c r="C279" t="inlineStr">
-        <is>
-          <t>04/05/2020</t>
-        </is>
+      <c r="C279" s="2" t="n">
+        <v>43955.50069444445</v>
       </c>
       <c r="D279" t="n">
         <v>190</v>
@@ -9864,10 +9312,8 @@
           <t>xs 64gb</t>
         </is>
       </c>
-      <c r="C280" t="inlineStr">
-        <is>
-          <t>04/05/2020</t>
-        </is>
+      <c r="C280" s="2" t="n">
+        <v>43955.51319444444</v>
       </c>
       <c r="D280" t="n">
         <v>640</v>
@@ -9898,10 +9344,8 @@
           <t>xs max 64 gb gold</t>
         </is>
       </c>
-      <c r="C281" t="inlineStr">
-        <is>
-          <t>04/05/2020</t>
-        </is>
+      <c r="C281" s="2" t="n">
+        <v>43955.51388888889</v>
       </c>
       <c r="D281" t="n">
         <v>620</v>
@@ -9932,10 +9376,8 @@
           <t>6s 32gb</t>
         </is>
       </c>
-      <c r="C282" t="inlineStr">
-        <is>
-          <t>04/05/2020</t>
-        </is>
+      <c r="C282" s="2" t="n">
+        <v>43955.53611111111</v>
       </c>
       <c r="D282" t="n">
         <v>190</v>
@@ -9966,10 +9408,8 @@
           <t>7 plus black</t>
         </is>
       </c>
-      <c r="C283" t="inlineStr">
-        <is>
-          <t>04/05/2020</t>
-        </is>
+      <c r="C283" s="2" t="n">
+        <v>43955.55902777778</v>
       </c>
       <c r="D283" t="n">
         <v>1</v>
@@ -10000,10 +9440,8 @@
           <t>x 256gb</t>
         </is>
       </c>
-      <c r="C284" t="inlineStr">
-        <is>
-          <t>04/05/2020</t>
-        </is>
+      <c r="C284" s="2" t="n">
+        <v>43955.56041666667</v>
       </c>
       <c r="D284" t="n">
         <v>600</v>
@@ -10034,10 +9472,8 @@
           <t>8 plus gold 64gb</t>
         </is>
       </c>
-      <c r="C285" t="inlineStr">
-        <is>
-          <t>04/05/2020</t>
-        </is>
+      <c r="C285" s="2" t="n">
+        <v>43955.56388888889</v>
       </c>
       <c r="D285" t="n">
         <v>385</v>
@@ -10068,10 +9504,8 @@
           <t>xs max gold 64giga</t>
         </is>
       </c>
-      <c r="C286" t="inlineStr">
-        <is>
-          <t>03/05/2020</t>
-        </is>
+      <c r="C286" s="2" t="n">
+        <v>43954.53055555555</v>
       </c>
       <c r="D286" t="n">
         <v>650</v>
@@ -10102,10 +9536,8 @@
           <t>x xs</t>
         </is>
       </c>
-      <c r="C287" t="inlineStr">
-        <is>
-          <t>03/05/2020</t>
-        </is>
+      <c r="C287" s="2" t="n">
+        <v>43954.53472222222</v>
       </c>
       <c r="D287" t="n">
         <v>400</v>
@@ -10136,10 +9568,8 @@
           <t>7 32gb</t>
         </is>
       </c>
-      <c r="C288" t="inlineStr">
-        <is>
-          <t>03/05/2020</t>
-        </is>
+      <c r="C288" s="2" t="n">
+        <v>43954.55694444444</v>
       </c>
       <c r="D288" t="n">
         <v>200</v>
@@ -10170,10 +9600,8 @@
           <t>6 32gb 2018 space grey 96</t>
         </is>
       </c>
-      <c r="C289" t="inlineStr">
-        <is>
-          <t>03/05/2020</t>
-        </is>
+      <c r="C289" s="2" t="n">
+        <v>43954.61111111111</v>
       </c>
       <c r="D289" t="n">
         <v>110</v>
@@ -10204,10 +9632,8 @@
           <t>7 32gb black audio</t>
         </is>
       </c>
-      <c r="C290" t="inlineStr">
-        <is>
-          <t>03/05/2020</t>
-        </is>
+      <c r="C290" s="2" t="n">
+        <v>43954.66388888889</v>
       </c>
       <c r="D290" t="n">
         <v>130</v>
@@ -10238,10 +9664,8 @@
           <t>xs max 64gb</t>
         </is>
       </c>
-      <c r="C291" t="inlineStr">
-        <is>
-          <t>03/05/2020</t>
-        </is>
+      <c r="C291" s="2" t="n">
+        <v>43954.73611111111</v>
       </c>
       <c r="D291" t="n">
         <v>640</v>
@@ -10272,10 +9696,8 @@
           <t>11 pro max 64 giga</t>
         </is>
       </c>
-      <c r="C292" t="inlineStr">
-        <is>
-          <t>03/05/2020</t>
-        </is>
+      <c r="C292" s="2" t="n">
+        <v>43954.76458333333</v>
       </c>
       <c r="D292" t="n">
         <v>1030</v>
@@ -10306,10 +9728,8 @@
           <t>x</t>
         </is>
       </c>
-      <c r="C293" t="inlineStr">
-        <is>
-          <t>02/05/2020</t>
-        </is>
+      <c r="C293" s="2" t="n">
+        <v>43953.84861111111</v>
       </c>
       <c r="D293" t="n">
         <v>350</v>
@@ -10340,10 +9760,8 @@
           <t>7 128</t>
         </is>
       </c>
-      <c r="C294" t="inlineStr">
-        <is>
-          <t>03/05/2020</t>
-        </is>
+      <c r="C294" s="2" t="n">
+        <v>43954.02013888889</v>
       </c>
       <c r="D294" t="n">
         <v>250</v>
